--- a/algos.xlsx
+++ b/algos.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>nodes can have at most 2 children</t>
+  </si>
   <si>
     <t>Breadth-first search</t>
   </si>
@@ -22,10 +31,86 @@
     <t>Search isn't the only thing BFS is good for. BFS is a traversal algorithm. That means it is an algorithm that visits every node in a tree-that is, it traverses or walks the tree.</t>
   </si>
   <si>
-    <t>from collections import deque
-q = deque()
-element = q.popleft()
-q.append(new_element)</t>
+    <t>queue = collections.deque()
+        queue.append((root, 0))
+        while queue:
+            node, accum = queue.popleft()
+            if node is not None:
+                if node.left is None and node.right is None:
+                    if accum + node.val == targetSum:
+                        return True
+                queue.append((node.left, accum+node.val))
+                queue.append((node.right, accum+node.val))</t>
+  </si>
+  <si>
+    <t>Depth-first search</t>
+  </si>
+  <si>
+    <t>DFS cannot be used for finding the shortest path.</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>BST: left child &lt; node &lt; right child; all the numbers in the left child subtree are smaller than the node</t>
+  </si>
+  <si>
+    <t>If we can guarantee the height of our tree will be O(logn), the searching the tree will be O(logn)</t>
+  </si>
+  <si>
+    <t>Insertions are just a matter of searching for a place to insert the node and adding a pointer, just like a linked list. So insertions are O(logn) as well.</t>
+  </si>
+  <si>
+    <t>an inorder traversal handles the nodes in sorted order</t>
+  </si>
+  <si>
+    <t>Inorder Traversal</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def getMinimumDifference(self, root: Optional[TreeNode]) -&gt; int:
+        min_diff = float("inf")
+        pre_val = None
+        def inorder(node):
+            if not node:
+                return
+            nonlocal min_diff, pre_val
+            inorder(node.left)
+            if pre_val is not None:
+                min_diff = min(min_diff, node.val - pre_val)
+            pre_val = node.val
+            inorder(node.right)
+        inorder(root)
+        return min_diff</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>class Solution2(object):
+    def searchBST(self, root, val):
+        """
+        :type root: TreeNode
+        :type val: int
+        :rtype: TreeNode
+        """
+        while root:
+            if root.val == val:
+                return root
+            if root.val &lt; val:
+                root = root.right
+            else:
+                root = root.left
+        return None</t>
+  </si>
+  <si>
+    <t>Character encoding</t>
+  </si>
+  <si>
+    <t>The letter a could be written in binary in many different ways</t>
+  </si>
+  <si>
+    <t>Unicode is the standard, but you need to use an encoding that follows the standard. The most popular encoding today is UTF-8.</t>
   </si>
 </sst>
 </file>
@@ -641,12 +726,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -970,34 +1061,115 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B4"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.8125" customWidth="1"/>
-    <col min="2" max="2" width="146.8125" customWidth="1"/>
+    <col min="2" max="2" width="17.8125" customWidth="1"/>
+    <col min="3" max="3" width="146.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" ht="56" spans="2:2">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+    <row r="3" ht="168" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="266" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="252" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A10"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/algos.xlsx
+++ b/algos.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12720"/>
+    <workbookView windowWidth="29400" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tree" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Heap" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Tree</t>
   </si>
@@ -112,6 +114,86 @@
   <si>
     <t>Unicode is the standard, but you need to use an encoding that follows the standard. The most popular encoding today is UTF-8.</t>
   </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-tilt/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diameter-of-binary-tree/solutions/1515564/python-easy-to-understand-solution-w-explanation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Hash table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># frequency intersection
+common_counts &amp;= collections.Counter(word) 
+return common_counts.elements()
+</t>
+  </si>
+  <si>
+    <t># unique intersection 
+set(nums1).intersection(set(nums2))</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Whenever you're trying to solve an array problem in place, always consider the possibility of iterating backwards instead of forwards through the array. It can completely change the problem, and make it a lot easier.</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>26. Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Dynamic Programing</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>len(nums)*(len(nums) + 1)//2</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>463. Island Perimeter</t>
+  </si>
+  <si>
+    <t>Window Overlapping</t>
+  </si>
+  <si>
+    <t>1854. Maximum Population Year</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>sort function</t>
+  </si>
+  <si>
+    <t>sorted() returns a new sorted list and leaves the original iterable unchanged.
+.sort() does not return anything (None) but modifies the original list directly.</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/</t>
+  </si>
 </sst>
 </file>
 
@@ -132,6 +214,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -242,14 +332,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,121 +663,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,31 +786,37 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,8 +827,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1061,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1074,7 +1162,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1085,22 +1173,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="168" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1197,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1118,38 +1206,38 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
       <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="266" spans="1:3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" ht="252" spans="1:3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1164,12 +1252,167 @@
     <row r="15" spans="3:3">
       <c r="C15" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C21" r:id="rId1" display="https://leetcode.com/problems/binary-tree-tilt/"/>
+    <hyperlink ref="C22" r:id="rId2" display="https://leetcode.com/problems/diameter-of-binary-tree/solutions/1515564/python-easy-to-understand-solution-w-explanation/"/>
+    <hyperlink ref="C23" r:id="rId3" display="https://leetcode.com/problems/balanced-binary-tree/description/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="18.8125" customWidth="1"/>
+    <col min="3" max="3" width="73.8203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="56" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="3:3">
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="42" spans="2:3">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" ht="28" spans="1:3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="63.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/algos.xlsx
+++ b/algos.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12720" activeTab="1"/>
+    <workbookView windowWidth="29400" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Array" sheetId="2" r:id="rId2"/>
     <sheet name="Heap" sheetId="3" r:id="rId3"/>
+    <sheet name="String" sheetId="4" r:id="rId4"/>
+    <sheet name="Linked List" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Tree</t>
   </si>
@@ -143,6 +145,10 @@
 set(nums1).intersection(set(nums2))</t>
   </si>
   <si>
+    <t>common = collections.Counter(nums1) &amp; collections.Counter(nums2)
+return common.elements()</t>
+  </si>
+  <si>
     <t>Two Pointers</t>
   </si>
   <si>
@@ -158,6 +164,9 @@
     <t>Dynamic Programing</t>
   </si>
   <si>
+    <t>We can make two important observations about this problem. First, we need to find the maximum or minimum of something. Second, we have to make decisions that might look different depending on decisions we made previously. These characteristics are typical of a dynamic programming problem.</t>
+  </si>
+  <si>
     <t>121. Best Time to Buy and Sell Stock</t>
   </si>
   <si>
@@ -170,6 +179,9 @@
     <t>Matrix</t>
   </si>
   <si>
+    <t xml:space="preserve"> It turns out two coordinates are on the same diagonal if and only if r1 - c1 == r2 - c2.</t>
+  </si>
+  <si>
     <t>463. Island Perimeter</t>
   </si>
   <si>
@@ -179,20 +191,198 @@
     <t>1854. Maximum Population Year</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>sort function</t>
+    <t>sorting</t>
   </si>
   <si>
     <t>sorted() returns a new sorted list and leaves the original iterable unchanged.
 .sort() does not return anything (None) but modifies the original list directly.</t>
   </si>
   <si>
+    <t># sort them in decreasing order.
+        counts_list.sort(key=lambda x: x[0], reverse=True)
+        # sort based on the frequency of the values
+        counts_list.sort(key=lambda x: x[1])</t>
+  </si>
+  <si>
+    <t>252. Meeting Rooms</t>
+  </si>
+  <si>
+    <t>looping</t>
+  </si>
+  <si>
+    <t>for i in range(len(digits) - 1, -1, -1)</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def searchInsert(self, nums: List[int], target: int) -&gt; int:
+        left, right = 0, len(nums) - 1
+        while left &lt;= right:
+            pivot = (left + right) // 2
+            if nums[pivot] == target:
+                return pivot
+            if target &lt; nums[pivot]:
+                right = pivot - 1
+            else:
+                left = pivot + 1
+        return left</t>
+  </si>
+  <si>
+    <t>Monotonic Stack (Next Greater element)</t>
+  </si>
+  <si>
+    <t>def nextGreaterElement(self, nums1, nums2):
+        nums1_idx = {val: idx for idx, val in enumerate(nums1)}
+        result = [-1 for _ in range(len(nums1))]
+        stack = []
+        for i in range(len(nums2)):
+            curr = nums2[i]
+            while stack and stack[-1] &lt; curr:
+                val = stack.pop()
+                idx = nums1_idx[val]
+                result[idx] = curr
+            if curr in nums1_idx:
+                stack.append(curr)
+        return result</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Conceptually, one can imagine the procedure of backtracking as the tree traversal. Starting from the root node, one sets out to search for solutions that are located at the leaf nodes. Each intermediate node represents a partial candidate solution that could potentially lead us to a final valid solution. At each node, we would fan out to move one step further to the final solution, i.e. we iterate the child nodes of the current node. Once we can determine if a certain node cannot possibly lead to a valid solution, we abandon the current node and backtrack to its parent node to explore other possibilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backtracking reduced the number of steps taken to reach the final result. This is known as pruning the recursion tree because we don't take unnecessary paths.
+</t>
+  </si>
+  <si>
+    <t>All the possible subsets are known as the power set, which includes all combinations of different lengths, ranging from 0 to N.</t>
+  </si>
+  <si>
+    <t>A common way to generate subsets is using backtracking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        def generate_subsets(nums, index, subset, subsets):
+            # base case: index reached end of nums
+            # add the current subset to subsets
+            if index == len(nums):
+                subsets.append(subset[:])
+                return
+            # generate subsets with nums[index]
+            subset.append(nums[index])
+            generate_subsets(nums, index+1, subset, subsets)
+            subset.pop()
+            # generate subsets without nums[index]
+            generate_subsets(nums, index+1, subset, subsets)
+        # generate all of the subsets
+        subsets = []
+        generate_subsets(nums, 0, [], subsets)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def generate_subsets(nums, index, current_XOR):
+            if index == len(nums):
+                # Return current_XOR when all elements in nums are already considered
+                return current_XOR
+            # calculate sum of subset xor with current element
+            with_element = generate_subsets(nums, index+1, current_XOR ^ nums[index])
+            # calculate sum of xor without current element
+            without_element = generate_subsets(nums, index+1, current_XOR)
+            # return sum of xor totals
+            return with_element + without_element
+        return generate_subsets(nums, 0, 0)
+</t>
+  </si>
+  <si>
+    <t>sorted array to BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def sortedArrayToBSTw(self, nums):
+        """
+        :type nums: List[int]
+        :rtype: TreeNode
+        """
+        if not nums:
+            return None
+        mid_idx = len(nums) // 2
+        root = TreeNode(nums[mid_idx])
+        root.left = self.sortedArrayToBST(nums[:mid_idx])
+        root.right = self.sortedArrayToBST(nums[mid_idx+1:])
+        return root
+</t>
+  </si>
+  <si>
+    <t>sliding window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def findMaxAverage(self, nums, k):
+        """
+        :type nums: List[int]
+        :type k: int
+        :rtype: float
+        """
+        curr_sum = max_sum = sum(nums[:k])
+        for i in range(k, len(nums)):
+            curr_sum += nums[i] - nums[i-k]
+            max_sum = max(max_sum, curr_sum)
+        return max_sum / k
+</t>
+  </si>
+  <si>
     <t>Heap</t>
   </si>
   <si>
+    <t>Kth largest/smallest number - In problems where we have to find kth largest/smallest number, we can always start by using any one of these three methods: sorting the array, using a priority queue, or using a sorted set.
+As these three methods keep array elements in sorted order and it's easy to find the required element.</t>
+  </si>
+  <si>
+    <t>import heapq
+        min_heap = []
+        seen = set()
+        for i in range(len(nums)):
+            if nums[i] in seen:
+                continue
+            heapq.heappush(min_heap, nums[i])
+            if len(min_heap) &gt; 3:
+                heapq.heappop(min_heap)
+            seen.add(nums[i])
+        if len(min_heap) == 2:
+            heapq.heappop(min_heap)
+        return min_heap[0]</t>
+  </si>
+  <si>
     <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/</t>
+  </si>
+  <si>
+    <t>class KthLargest:
+    def __init__(self, k: int, nums: List[int]):
+        self.k = k
+        self.heap = nums
+        heapq.heapify(self.heap)
+        while len(self.heap) &gt; k:
+            heapq.heappop(self.heap)
+    def add(self, val: int) -&gt; int:
+        heapq.heappush(self.heap, val)
+        if len(self.heap) &gt; self.k:
+            heapq.heappop(self.heap)
+        return self.heap[0]</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Anagrams</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>string comparison: compare each pair of adjacent words. find the first letter that is different. if we didn't find a first difference, if the latter word is shorter, then words is not sorted.</t>
+  </si>
+  <si>
+    <t>Two strings are similar if they consist of the same characters.</t>
+  </si>
+  <si>
+    <t>Set. To be used as hash table key, then tuple(sorted(set(word)))</t>
   </si>
 </sst>
 </file>
@@ -216,6 +406,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -255,14 +453,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,88 +853,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -765,16 +955,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,7 +976,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -798,23 +988,26 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -827,7 +1020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,7 +1344,7 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1162,7 +1355,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1173,22 +1366,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="168" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4"/>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1390,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1206,25 +1399,25 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="266" spans="1:3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1426,7 @@
       </c>
     </row>
     <row r="10" ht="252" spans="1:3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1258,17 +1451,17 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1289,10 +1482,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1313,20 +1506,20 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="3:3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="42" spans="2:3">
-      <c r="B3" t="s">
+    <row r="3" ht="30" customHeight="1" spans="3:3">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" ht="42" spans="2:3">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1335,53 +1528,163 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
+    <row r="14" ht="56" spans="2:3">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="3:3">
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" ht="28" spans="1:3">
-      <c r="A33" t="s">
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="34" ht="28" spans="2:3">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" ht="56" spans="3:3">
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" ht="168" spans="2:3">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" ht="46" customHeight="1"/>
+    <row r="46" ht="196" spans="2:3">
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" ht="98" spans="2:3">
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" ht="56" spans="3:3">
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" ht="28" spans="3:3">
+      <c r="C51" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" ht="266" spans="3:3">
+      <c r="C55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" ht="224" spans="3:3">
+      <c r="C56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" ht="182" spans="2:3">
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" ht="168" spans="2:3">
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" ht="70" spans="2:3">
+      <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" ht="280" spans="3:3">
+      <c r="C63" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1393,27 +1696,96 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B3"/>
+  <dimension ref="A3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="63.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="196" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A4:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="3" max="3" width="55.4375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="336" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/algos.xlsx
+++ b/algos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14340"/>
+    <workbookView windowWidth="29400" windowHeight="14340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
   <si>
     <t>Tree</t>
   </si>
@@ -132,7 +132,7 @@
     <t>Array</t>
   </si>
   <si>
-    <t>Hash table</t>
+    <t>Counter</t>
   </si>
   <si>
     <t xml:space="preserve"># frequency intersection
@@ -328,6 +328,42 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    def lengthOfLongestSubstring(self, s: str) -&gt; int:
+        left = right = 0
+        ans = 0
+        count_map = collections.defaultdict(int)
+        while right &lt; len(s):
+            count_map[s[right]] += 1
+            while count_map[s[right]] == 2:
+                count_map[s[left]] -= 1
+                left += 1
+            ans = max(ans, right - left + 1)
+            right += 1
+        return ans</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def maximumLengthSubstring(self, s: str) -&gt; int:
+        left = right = 0
+        ans = 0
+        count_map = collections.defaultdict(int)
+        while right &lt; len(s):
+            count_map[s[right]] += 1
+            while count_map[s[right]] == 3:
+                count_map[s[left]] -= 1
+                left += 1
+            ans = max(ans, right - left + 1)
+            right += 1
+        return ans
+        </t>
+  </si>
+  <si>
+    <t>3090. Maximum Length Substring With Two Occurrences</t>
+  </si>
+  <si>
     <t>Heap</t>
   </si>
   <si>
@@ -384,15 +420,181 @@
   <si>
     <t>Set. To be used as hash table key, then tuple(sorted(set(word)))</t>
   </si>
+  <si>
+    <t>palindrome</t>
+  </si>
+  <si>
+    <t>2 pointers</t>
+  </si>
+  <si>
+    <t>merge strings</t>
+  </si>
+  <si>
+    <t>leverage lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def mergeAlternately(self, word1: str, word2: str) -&gt; str:
+        result = []
+        n = max(len(word1), len(word2))
+        for i in range(n):
+            if i &lt; len(word1):
+                result.append(word1[i])
+            if i &lt; len(word2):
+                result.append(word2[i])
+        return "".join(result)</t>
+  </si>
+  <si>
+    <t>Common Characters (track duplicates)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def intersect(self, nums1, nums2):
+        """
+        :type nums1: List[int]
+        :type nums2: List[int]
+        :rtype: List[int]
+        """
+        intersection = collections.Counter(nums1) &amp; collections.Counter(nums2)
+        return intersection.elements()
+    def intersect(self, nums1, nums2):
+        """
+        :type nums1: List[int]
+        :type nums2: List[int]
+        :rtype: List[int]
+        """
+        common_counts = collections.Counter(nums1)
+        current_counts = collections.Counter(nums2)
+        for letter in common_counts.keys():
+            common_counts[letter] = min(common_counts[letter], current_counts[letter])
+        result = []
+        for key, count in common_counts.items():
+            for _ in range(count):
+                result.append(key)
+        return result</t>
+  </si>
+  <si>
+    <t>1.find the shortest 
+2.loop part of the shortest to compare against all elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Two Hash Maps</t>
+  </si>
+  <si>
+    <t>205. Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>add strings / math</t>
+  </si>
+  <si>
+    <t>415. Add Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def addStrings(self, num1: str, num2: str) -&gt; str:
+        n = max(len(num1), len(num2))
+        num1, num2 = num1.zfill(n), num2.zfill(n)
+        carry = 0
+        ans = []
+        for i in range(n-1, -1, -1):
+            carry += int(num1[i])
+            carry += int(num2[i])
+            ans.append(str(carry % 10))
+            carry //= 10
+        if carry == 1:
+            ans.append("1")
+        return "".join(ans[::-1])
+        </t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+class Solution(object):
+    def isValid(self, s):
+        """
+        :type s: str
+        :rtype: bool
+        """
+        stack = []
+        mappings = {")": "(", "]": "[", "}": "{"}
+        for cha in s:
+            if cha in mappings:
+                if not stack:
+                    return False
+                top_cha = stack.pop()
+                if top_cha != mappings[cha]:
+                    return False
+            else:
+                stack.append(cha)
+        return len(stack) == 0 
+        </t>
+  </si>
+  <si>
+    <t>20, 1047</t>
+  </si>
+  <si>
+    <t>sliding widow</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def strStr(self, haystack, needle):
+        """
+        :type haystack: str
+        :type needle: str
+        :rtype: int
+        """
+        m = len(haystack)
+        n = len(needle)
+        for window_start in range(m - n + 1):
+            if haystack[window_start:window_start+n] == needle:
+                return window_start
+        return -1</t>
+  </si>
+  <si>
+    <t>Parethenese</t>
+  </si>
+  <si>
+    <t>string matching (check if we can get goal by rotating s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    def rotateString(self, s, goal):
+        return len(s) == len(goal) and goal in s+s
+</t>
+  </si>
+  <si>
+    <t>Two pointers</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def isSubsequence(self, s, t):
+        """
+        :type s: str
+        :type t: str
+        :rtype: bool
+        """
+        p1 = p2 = 0
+        while p1 &lt; len(s) and p2 &lt; len(t):
+            if s[p1] == t[p2]:
+                p1 += 1
+            p2 += 1
+        return p1 == len(s)</t>
+  </si>
+  <si>
+    <t>392. Is Subsequence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -421,22 +623,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,21 +661,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +683,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,7 +722,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,35 +749,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -557,6 +759,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -569,13 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,151 +921,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,6 +950,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -768,45 +1042,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -815,180 +1050,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,13 +1200,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1016,9 +1224,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
@@ -1344,7 +1549,7 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1355,7 +1560,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1366,22 +1571,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="168" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1595,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1399,25 +1604,25 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="266" spans="1:3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1426,7 +1631,7 @@
       </c>
     </row>
     <row r="10" ht="252" spans="1:3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1451,17 +1656,17 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1482,16 +1687,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="18.8125" customWidth="1"/>
     <col min="3" max="3" width="73.8203125" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56" spans="1:3">
@@ -1506,12 +1712,12 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="3:3">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="3:3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1519,7 +1725,7 @@
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1674,17 +1880,33 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" ht="70" spans="2:3">
-      <c r="B62" s="1" t="s">
+    <row r="61" ht="182" spans="3:4">
+      <c r="C61" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" ht="210" spans="3:4">
       <c r="C62" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" ht="280" spans="3:3">
-      <c r="C63" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" ht="70" spans="2:3">
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" ht="280" spans="3:3">
+      <c r="C65" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1709,15 +1931,15 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="196" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1732,40 +1954,159 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:C6"/>
+  <dimension ref="A4:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="53.5" customWidth="1"/>
     <col min="3" max="3" width="55.4375" customWidth="1"/>
+    <col min="4" max="4" width="21.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" ht="336" spans="2:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" ht="42" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" ht="140" spans="3:3">
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" ht="56" spans="2:3">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="378" spans="2:3">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" ht="28" spans="3:4">
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3">
+        <v>141071</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" ht="280" spans="3:3">
+      <c r="C21" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" ht="294" spans="2:4">
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" ht="196" spans="2:4">
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" ht="56" spans="2:3">
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" ht="196" spans="2:4">
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/algos.xlsx
+++ b/algos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14340"/>
+    <workbookView windowWidth="28000" windowHeight="12720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Array_&amp;_String" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -678,6 +678,18 @@
 for i in range(len(digits) - 1, -1, -1)</t>
   </si>
   <si>
+    <t>loop over a sub with len m</t>
+  </si>
+  <si>
+    <t>n = len(array)
+m = len(sub)
+for i in range(n - m + 1):
+....</t>
+  </si>
+  <si>
+    <t>1566. Detect Pattern of Length M Repeated K or More Times</t>
+  </si>
+  <si>
     <t>Heap</t>
   </si>
   <si>
@@ -832,20 +844,76 @@
 isalnum()</t>
   </si>
   <si>
-    <t>convert binary string to int
-int(binary_str, 2)</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>Binary Tree</t>
-  </si>
-  <si>
-    <t>nodes can have at most 2 children</t>
-  </si>
-  <si>
-    <t>Breadth-first search</t>
+    <t>binary</t>
+  </si>
+  <si>
+    <t># convert binary string to int
+int(binary_str, 2)
+# int to binary string
+"{0:b}".format(4)</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>BST sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def rangeSumBST(self, root, low, high):
+        if root is None:
+            return 0
+        if low &lt;= root.val &lt;= high:
+            return root.val + self.rangeSumBST(root.left, low, high) + self.rangeSumBST(root.right, low, high)
+        elif root.val &gt; high:
+            return self.rangeSumBST(root.left, low, high)
+        else:
+            return self.rangeSumBST(root.right, low, high)</t>
+  </si>
+  <si>
+    <t>938. Range Sum of BST</t>
+  </si>
+  <si>
+    <t>Max depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def maxDepth(self, root):
+        if root is None:
+            return 0
+        return max(self.maxDepth(root.left), self.maxDepth(root.right)) + 1</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Is Mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        def isMirror(node1, node2):
+            if node1 is None and node2 is None:
+                return True
+            if node1 and node2 and node1.val == node2.val:
+                return isMirror(node1.left, node2.right) and isMirror(node1.right, node2.left)
+            else:
+                return False</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def invertTree(self, root):
+        if not root:
+            return root
+        root.left, root.right = self.invertTree(root.right), self.invertTree(root.left)
+        return root</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>BFS</t>
   </si>
   <si>
     <t>Search isn't the only thing BFS is good for. BFS is a traversal algorithm. That means it is an algorithm that visits every node in a tree-that is, it traverses or walks the tree.</t>
@@ -863,10 +931,114 @@
                 queue.append((node.right, accum+node.val))</t>
   </si>
   <si>
-    <t>Depth-first search</t>
-  </si>
-  <si>
-    <t>DFS cannot be used for finding the shortest path.</t>
+    <t>DFS
+DFS cannot be used for finding the shortest path.</t>
+  </si>
+  <si>
+    <t>def rangeSumBST(self, root, low, high):
+        def dfs(node):
+            if node:
+                if low &lt;= node.val &lt;= high:
+                    ans[0] += node.val
+                    dfs(node.left)
+                    dfs(node.right)
+                elif node.val &lt; low:
+                    dfs(node.right)
+                else:
+                    dfs(node.left)
+        ans = [0]
+        dfs(root)
+        return ans[0]</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def rangeSumBST(self, root, low, high):
+        stack = [root]
+        ans = 0
+        while stack:
+            node = stack.pop()
+            if node:
+                if low &lt;= node.val &lt;= high:
+                    ans += node.val
+                    stack.append(node.left)
+                    stack.append(node.right)
+                elif node.val &lt; low:
+                    stack.append(node.right)
+                else:
+                    stack.append(node.left)
+        return ans</t>
+  </si>
+  <si>
+    <t>Carry extra info (length)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def maxDepth(self, root):
+        stack = [(root, 1)]
+        depth = 0
+        while stack:
+            node, node_dep = stack.pop()
+            if node is not None:
+                depth = max(depth, node_dep)
+                stack.append((node.left, node_dep+1))
+                stack.append((node.right, node_dep+1))
+        return depth
+        </t>
+  </si>
+  <si>
+    <t>Carry extra info (mirror tree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def isSymmetric(self, root):
+        stack = [(root, root)]
+        while stack:
+            node1, node2 = stack.pop()
+            if node1 is None and node2 is None:
+                continue
+            if node1 and node2 and node1.val == node2.val:
+                stack.append((node1.left, node2.right))
+                stack.append((node1.right, node2.left))
+            else:
+                return False
+        return True</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree
+100. Same Tree</t>
+  </si>
+  <si>
+    <t>Carry multiple fields (depth &amp; parent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def isCousins(self, root, x, y):
+        results = []
+        stack = [(root, 1, None)]
+        while stack:
+            node, depth, parent = stack.pop()
+            if node:
+                if node.val == x or node.val == y:
+                    results.append((depth, parent))
+                    if len(results) == 2:
+                        break
+                stack.append((node.left, depth+1, node))
+                stack.append((node.right, depth+1, node))
+        return results[0][0] == results[1][0] and results[0][1] != results[1][1]
+</t>
+  </si>
+  <si>
+    <t>993. Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def invertTree(self, root):
+        stack = [root]
+        while stack:
+            node = stack.pop()
+            if node:
+                node.left, node.right = node.right, node.left
+                stack.append(node.left)
+                stack.append(node.right)
+        return root</t>
   </si>
   <si>
     <t>Binary Search Tree</t>
@@ -881,30 +1053,7 @@
     <t>Insertions are just a matter of searching for a place to insert the node and adding a pointer, just like a linked list. So insertions are O(logn) as well.</t>
   </si>
   <si>
-    <t>an inorder traversal handles the nodes in sorted order</t>
-  </si>
-  <si>
-    <t>Inorder Traversal</t>
-  </si>
-  <si>
-    <t>class Solution:
-    def getMinimumDifference(self, root: Optional[TreeNode]) -&gt; int:
-        min_diff = float("inf")
-        pre_val = None
-        def inorder(node):
-            if not node:
-                return
-            nonlocal min_diff, pre_val
-            inorder(node.left)
-            if pre_val is not None:
-                min_diff = min(min_diff, node.val - pre_val)
-            pre_val = node.val
-            inorder(node.right)
-        inorder(root)
-        return min_diff</t>
-  </si>
-  <si>
-    <t>Binary Search</t>
+    <t>Binary search</t>
   </si>
   <si>
     <t>class Solution2(object):
@@ -917,6 +1066,101 @@
             else:
                 root = root.left
         return None</t>
+  </si>
+  <si>
+    <t>an inorder traversal handles the nodes in sorted order
+* cache prev value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def getMinimumDifference(self, root):
+        def inorder(node):
+            if node is None:
+                return None
+            inorder(node.left)
+            if prev[0] is not None:
+                min_diff[0] = min(min_diff[0], node.val - prev[0])
+            prev[0] = node.val
+            inorder(node.right)
+        prev = [None]
+        min_diff = [float('inf')]
+        inorder(root)
+        return min_diff[0]</t>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def minDiffInBST(self, root):
+        def inorder(node):
+            if not node:
+                return 0
+            inorder(node.left)
+            if pre[0] is not None:
+                min_diff[0] = min(min_diff[0], node.val - pre[0])
+            pre[0] = node.val
+            inorder(node.right)
+        min_diff = [float('inf')]
+        pre = [None]
+        inorder(root)
+        return min_diff[0]
+</t>
+  </si>
+  <si>
+    <t>783. Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>Postorder Traversal</t>
+  </si>
+  <si>
+    <t>In postorder traversal, you visit nodes in the following order:
+1.Left subtree
+2.Right subtree
+3.Root node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def postorder(self, root):
+        values = []
+        def postorder(node):
+            if not node:
+                return
+            for child in node.children:
+                postorder(child)
+            values.append(node.val)
+        postorder(root)
+        return values</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>postorder valueSum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def findTilt(self, root):
+        total_tilt = [0]
+        def valueSum(node):
+        # we will traverse the tree in the post-order DFS
+        # we visit a node's left and right subtrees before processing the value of the current node.
+            if not node:
+                return 0
+            left_sum = valueSum(node.left)
+            right_sum = valueSum(node.right)
+            tilt = abs(left_sum - right_sum)
+            total_tilt[0] += tilt
+            return left_sum + right_sum + node.val
+        valueSum(root)
+        return total_tilt[0]
+</t>
+  </si>
+  <si>
+    <t>563. Binary Tree Tilt</t>
   </si>
   <si>
     <t>Character encoding</t>
@@ -1066,6 +1310,12 @@
   </si>
   <si>
     <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Easy Review</t>
+  </si>
+  <si>
+    <t>1025. Divisor Game</t>
   </si>
   <si>
     <t>Backtracking</t>
@@ -1135,8 +1385,16 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1152,9 +1410,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1616,182 +1873,185 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1801,10 +2061,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2129,504 +2389,518 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:E99"/>
+  <dimension ref="A3:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="74.6875" customWidth="1"/>
     <col min="3" max="3" width="44.4375" customWidth="1"/>
     <col min="4" max="4" width="46.1875" customWidth="1"/>
     <col min="5" max="5" width="29.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="126" spans="1:4">
-      <c r="A4" s="6" t="s">
+    <row r="3" ht="126" spans="1:4">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="42" spans="2:4">
-      <c r="B7" s="4" t="s">
+    <row r="6" ht="42" spans="2:4">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="2:4">
-      <c r="B9" t="s">
+    <row r="8" ht="42" spans="2:4">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="2:4">
-      <c r="B13" t="s">
+    <row r="12" ht="28" spans="2:4">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="28" spans="2:4">
-      <c r="B15" t="s">
+    <row r="14" ht="28" spans="2:4">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="56" spans="2:4">
-      <c r="B18" s="1" t="s">
+    <row r="17" ht="56" spans="2:4">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" ht="28" spans="2:4">
-      <c r="B20" t="s">
+    <row r="19" ht="28" spans="2:4">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="42" spans="3:4">
-      <c r="C23" t="s">
+    <row r="22" ht="42" spans="3:4">
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="30" ht="98" spans="1:4">
-      <c r="A30" s="6" t="s">
+    <row r="24" spans="4:4">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="29" ht="98" spans="1:4">
+      <c r="A29" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" ht="238" spans="2:5">
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" ht="238" spans="2:5">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" ht="308" spans="2:4">
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" ht="308" spans="2:4">
-      <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" ht="140" spans="2:4">
+      <c r="B32" t="s">
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" ht="140" spans="2:4">
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" ht="154" spans="2:4">
+    <row r="35" ht="154" spans="2:4">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" ht="336" spans="2:4">
       <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" ht="336" spans="2:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" ht="294" spans="2:4">
       <c r="B37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" ht="294" spans="2:4">
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" ht="70" spans="2:4">
-      <c r="B40" s="1" t="s">
+    <row r="39" ht="70" spans="2:4">
+      <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" ht="238" spans="1:4">
-      <c r="A44" s="6" t="s">
+    <row r="43" ht="238" spans="1:4">
+      <c r="A43" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" ht="196" spans="2:4">
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" ht="196" spans="2:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" ht="210" spans="2:4">
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" ht="210" spans="2:4">
-      <c r="B46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" t="s">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" ht="210" spans="1:4">
-      <c r="A51" s="8" t="s">
+    <row r="50" ht="210" spans="1:4">
+      <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D50" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" ht="210" spans="2:4">
-      <c r="B52" s="9" t="s">
+    <row r="51" ht="210" spans="2:4">
+      <c r="B51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D51" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" ht="196" spans="2:4">
-      <c r="B53" s="10" t="s">
+    <row r="52" ht="196" spans="2:4">
+      <c r="B52" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C52" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D52" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" ht="409.5" spans="2:4">
-      <c r="B54" s="11" t="s">
+    <row r="53" ht="409.5" spans="2:4">
+      <c r="B53" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" ht="168" spans="2:4">
-      <c r="B55" s="11" t="s">
+    <row r="54" ht="168" spans="2:4">
+      <c r="B54" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C54" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" ht="154" spans="2:4">
-      <c r="B56" s="11" t="s">
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" ht="154" spans="2:4">
+      <c r="B55" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C55" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D55" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" ht="308" spans="2:4">
-      <c r="B57" t="s">
+    <row r="56" ht="308" spans="2:4">
+      <c r="B56" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" ht="70" spans="1:2">
-      <c r="A59" s="6" t="s">
+    <row r="58" ht="70" spans="1:2">
+      <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" ht="28" spans="1:2">
-      <c r="A60" s="6" t="s">
+    <row r="59" ht="28" spans="1:2">
+      <c r="A59" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="6" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="9" t="s">
         <v>80</v>
       </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="B61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" t="s">
         <v>83</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" ht="28" spans="1:2">
-      <c r="A64" s="6" t="s">
+    <row r="63" ht="28" spans="1:2">
+      <c r="A63" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" ht="70" spans="2:3">
       <c r="B64" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" ht="70" spans="2:3">
-      <c r="B65" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" ht="28" spans="1:2">
-      <c r="A67" s="6" t="s">
+    <row r="66" ht="28" spans="1:2">
+      <c r="A66" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="72" ht="70" spans="1:2">
-      <c r="A72" s="13" t="s">
+    <row r="67" ht="56" spans="2:4">
+      <c r="B67" t="s">
         <v>91</v>
       </c>
+      <c r="C67" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="71" ht="70" spans="1:2">
+      <c r="A71" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" ht="280" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" ht="280" spans="2:2">
-      <c r="B73" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" ht="196" spans="2:2">
-      <c r="B75" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B78" t="s">
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="74" ht="196" spans="2:2">
+      <c r="B74" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" ht="28" spans="2:2">
-      <c r="B79" s="1" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" t="s">
+      <c r="B77" t="s">
         <v>100</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
+    <row r="78" ht="28" spans="2:2">
+      <c r="B78" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="84" ht="154" spans="2:3">
-      <c r="B84" t="s">
+      <c r="C79" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="1" t="s">
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="86" ht="224" spans="2:3">
-      <c r="B86" t="s">
+      <c r="C81" t="s">
         <v>106</v>
       </c>
+    </row>
+    <row r="83" ht="154" spans="2:3">
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" ht="224" spans="2:3">
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" ht="42" spans="3:4">
       <c r="C86" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" ht="42" spans="3:4">
-      <c r="C87" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D87" s="15">
+        <v>111</v>
+      </c>
+      <c r="D86" s="16">
         <v>141071</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
-      <c r="B89" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" t="s">
-        <v>110</v>
-      </c>
-      <c r="D89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" t="s">
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
         <v>112</v>
       </c>
-      <c r="D91" t="s">
+      <c r="C88" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="92" ht="280" spans="3:3">
-      <c r="C92" s="1" t="s">
+      <c r="D88" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94" ht="56" spans="2:3">
-      <c r="B94" t="s">
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D90" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" ht="56" spans="2:3">
-      <c r="B97" t="s">
+    <row r="91" ht="280" spans="3:3">
+      <c r="C91" s="1" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="93" ht="56" spans="2:3">
+      <c r="B93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" ht="56" spans="2:3">
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" ht="42" spans="3:3">
       <c r="C97" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" ht="42" spans="3:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" ht="56" spans="2:3">
+      <c r="B98" t="s">
+        <v>123</v>
+      </c>
       <c r="C98" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" ht="28" spans="3:3">
-      <c r="C99" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B74" r:id="rId1" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/"/>
+    <hyperlink ref="B73" r:id="rId1" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2636,145 +2910,289 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.8125" customWidth="1"/>
-    <col min="3" max="3" width="146.8125" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="82.03125" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
+    <row r="1" ht="140" spans="2:5">
+      <c r="B1" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" ht="70" spans="2:5">
+      <c r="B2" s="4"/>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" ht="98" spans="2:5">
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="2:5">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" ht="168" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" ht="210" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" ht="168" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" ht="210" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="C6" t="s">
+    <row r="9" ht="154" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="C8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" ht="266" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="10" ht="168" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" ht="210" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" ht="126" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="C12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" ht="182" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" ht="182" spans="2:3">
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>146</v>
+    <row r="13" ht="28" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="C14" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" ht="42" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" ht="182" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" ht="210" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="C17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" ht="238" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" ht="168" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" ht="224" spans="3:5">
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" ht="28" spans="2:3">
+      <c r="B23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" ht="182" spans="2:3">
+      <c r="B35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:A10"/>
+    <mergeCell ref="A5:A19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" display="https://leetcode.com/problems/binary-tree-tilt/"/>
-    <hyperlink ref="C22" r:id="rId2" display="https://leetcode.com/problems/diameter-of-binary-tree/solutions/1515564/python-easy-to-understand-solution-w-explanation/"/>
-    <hyperlink ref="C23" r:id="rId3" display="https://leetcode.com/problems/balanced-binary-tree/description/"/>
+    <hyperlink ref="C30" r:id="rId1" display="https://leetcode.com/problems/binary-tree-tilt/"/>
+    <hyperlink ref="C31" r:id="rId2" display="https://leetcode.com/problems/diameter-of-binary-tree/solutions/1515564/python-easy-to-understand-solution-w-explanation/"/>
+    <hyperlink ref="C32" r:id="rId3" display="https://leetcode.com/problems/balanced-binary-tree/description/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2798,61 +3216,61 @@
   <sheetData>
     <row r="2" ht="112" spans="2:3">
       <c r="B2" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="56" spans="2:3">
       <c r="B4" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" ht="126" spans="2:3">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" ht="98" spans="2:3">
       <c r="B8" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" ht="182" spans="2:3">
       <c r="B10" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" ht="182" spans="2:3">
       <c r="B12" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" ht="154" spans="2:4">
       <c r="B14" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2864,13 +3282,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:C5"/>
+  <dimension ref="A5:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.8125" customWidth="1"/>
     <col min="2" max="2" width="44.0078125" customWidth="1"/>
@@ -2878,13 +3296,21 @@
   <sheetData>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2909,35 +3335,35 @@
   <sheetData>
     <row r="5" ht="112" spans="1:2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" ht="56" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" ht="28" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="266" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" ht="252" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +3388,7 @@
   <sheetData>
     <row r="2" ht="238" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/algos.xlsx
+++ b/algos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12720" activeTab="3"/>
+    <workbookView windowWidth="29400" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Array_&amp;_String" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="252">
+  <si>
+    <t>Algo</t>
+  </si>
   <si>
     <t>Two Pointers</t>
   </si>
@@ -77,7 +80,19 @@
     <t>1099. Two Sum Less Than K</t>
   </si>
   <si>
-    <t>in place custom ordering</t>
+    <t>Sort array by group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def sortArrayByParity(self, nums):
+        left, right = 0, len(nums) - 1
+        while left &lt; right:
+            while left &lt; right and nums[left] % 2 == 0:
+                left += 1
+            while left &lt; right and nums[right] % 2 == 1:
+                right -= 1
+            if left &lt; right:
+                nums[left], nums[right] = nums[right], nums[left]
+        return nums</t>
   </si>
   <si>
     <t>905. Sort Array By Parity
@@ -111,8 +126,8 @@
 1984</t>
   </si>
   <si>
-    <t>double while - move end 
-"seems can always do move start instead"</t>
+    <t xml:space="preserve">finding MAX/LONGEST subarray in array that satisfies the specified conditions
+Move right pointer </t>
   </si>
   <si>
     <t xml:space="preserve">    def lengthOfLongestSubstring(self, s: str) -&gt; int:
@@ -149,8 +164,8 @@
 </t>
   </si>
   <si>
-    <t>double while/if - move start
-"start operations, like counting, on each new substr [start, end]"</t>
+    <t>finding subarray in array that satisfies the specified conditions
+Move left pointer</t>
   </si>
   <si>
     <t>class Solution(object):
@@ -190,6 +205,30 @@
     <t>28,
 2269
 2379</t>
+  </si>
+  <si>
+    <t>Group All 1's Together</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def minSwaps(self, data):
+        # Count the total number of 1s in the array
+        window_len = sum(data)
+        # Initialize the window sum for the first 'total_ones' elements
+        curr_window = sum(data[:window_len])
+        # The minimum swaps needed will be based on the number of 0s in the initial window
+        min_swaps = window_len - curr_window
+        for i in range(window_len, len(data)):
+            # Slide the window to the right
+            curr_window += data[i] - data[i-window_len]
+            # Calculate the number of swaps needed for the current window
+            swaps = window_len - curr_window
+            min_swaps = min(min_swaps, swaps)
+        return min_swaps</t>
+  </si>
+  <si>
+    <t>1151. Minimum Swaps to Group All 1's Together
+2379. Minimum Recolors to Get K Consecutive Black Blocks</t>
   </si>
   <si>
     <t>String matching</t>
@@ -361,44 +400,29 @@
 844_Backspace_String_Compare.py</t>
   </si>
   <si>
-    <t>Next greater element
-[1,3,4,2] -&gt; [3,4,-1, -1]</t>
-  </si>
-  <si>
-    <t># Dictionary to hold the next greater element for each element in nums2
-        next_greater = {}
-        # Stack to keep track of elements for which we need to find the next greater element
-        stack = []
-        for num in nums2:
-            while stack and num &gt; stack[-1]:
-                next_greater[stack.pop()] = num
-            stack.append(num)
-        while stack:
-            next_greater[stack.pop()] = -1</t>
+    <t>Monotonic Stack
+1.Next Greater Element: Finding the next greater element for each element in an array.
+2.Next Smaller Element: Finding the next smaller element for each element in an array.
+3.Trapping Rain Water: Calculating how much water can be trapped between buildings.
+4.Histogram Problems: Calculating area under histograms and similar problems.</t>
+  </si>
+  <si>
+    <t>def next_greater_elements(nums):
+    stack = []
+    result = [-1] * len(nums)
+    for i in range(len(nums)):
+        while stack and nums[stack[-1]] &lt; nums[i]:
+            idx = stack.pop()
+            result[idx] = nums[i]
+        stack.append(i)
+    return result</t>
   </si>
   <si>
     <t>496. Next Greater Element I
+503. Next Greater Element II
 1475. Final Prices With a Special Discount in a Shop</t>
   </si>
   <si>
-    <t>Monotonic Stack (Next Greater element)</t>
-  </si>
-  <si>
-    <t>def nextGreaterElement(self, nums1, nums2):
-        nums1_idx = {val: idx for idx, val in enumerate(nums1)}
-        result = [-1 for _ in range(len(nums1))]
-        stack = []
-        for i in range(len(nums2)):
-            curr = nums2[i]
-            while stack and stack[-1] &lt; curr:
-                val = stack.pop()
-                idx = nums1_idx[val]
-                result[idx] = curr
-            if curr in nums1_idx:
-                stack.append(curr)
-        return result</t>
-  </si>
-  <si>
     <t>review</t>
   </si>
   <si>
@@ -408,84 +432,575 @@
     <t>Binary Search - Sorted</t>
   </si>
   <si>
-    <t>direct binary search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Solution(object):
-    def searchInsert(self, nums, target):
-        left = 0
-        right = len(nums) - 1
+    <t>looking for an exact match of a target value in an array</t>
+  </si>
+  <si>
+    <t>def binary_search(arr, target):
+    left, right = 0, len(arr) - 1
+    while left &lt;= right:
+        mid = (right + left) // 2
+        if arr[mid] == target:
+            return mid  # Found the target
+        elif arr[mid] &lt; target:
+            left = mid + 1
+        else:
+            right = mid - 1
+    return -1  # Target not found</t>
+  </si>
+  <si>
+    <t>35. Search Insert Position
+704. Binary Search
+69. Sqrt(x)
+367. Valid Perfect Square
+*2089. Find Target Indices After Sorting Array (with dup)</t>
+  </si>
+  <si>
+    <t>looking for the FIRST MATCH of a condition in an array
+* First negative
+* First larger than target</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def firstBadVersion(self, n):
+        left = 1
+        right = n
         while left &lt;= right:
             mid = (left + right) // 2
-            if nums[mid] == target:
-                return mid
-            if nums[mid] &lt; target:
+            if not isBadVersion(mid): # not match condition
                 left = mid + 1
             else:
                 right = mid - 1
-        return left </t>
-  </si>
-  <si>
-    <t>35. Search Insert Position
-704. Binary Search</t>
-  </si>
-  <si>
-    <t>floor value search</t>
-  </si>
-  <si>
-    <t>class Solution(object):
-    def mySqrt(self, x):
-        low = 0
-        high = x
-        while low &lt;= high:
-            mid = (low + high) // 2
-            if mid ** 2 == x:
-                return mid
-            elif mid ** 2 &lt; x:
-                low = mid + 1
-            else:
-                high = mid - 1
-        return high</t>
-  </si>
-  <si>
-    <t>69. Sqrt(x)
-367. Valid Perfect Square</t>
-  </si>
-  <si>
-    <t>变形 -  [A, A, A, B, B, B] - get the index of first B
-Two type of data
-[1, 1, 1, 0, 0]
-[1, 3, 4, -1, -2]
-[True, True, False, False, False]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def binary_first(array):
-            left = 0
-            right = len(array) - 1
-            while left &lt;= right:
-                mid = (left + right) // 2
-                if array[mid] == 0:   # if array[mid] is B
-                    right = mid - 1
-                else:
-                    left = mid + 1
-            return left
-# left is first A
-# right is last B
-</t>
+        # left is first match
+        # right is last not match
+        return left</t>
   </si>
   <si>
     <t>278. First Bad Version
 1351. Count Negative Numbers in a Sorted Matrix
-1337. The K Weakest Rows in a Matrix</t>
-  </si>
-  <si>
-    <t>变形 - multiple types of date -  [...., A, A, A, ...] - sorted</t>
+2389. Longest Subsequence With Limited Sum
+744. Find Smallest Letter Greater Than Target</t>
+  </si>
+  <si>
+    <t>find the position to insert a new element or identify a unique element. 
+The main idea is to ensure that the search space is valid until it narrows down to one possible position.</t>
+  </si>
+  <si>
+    <t>def binary_search(arr, target):
+    left, right = 0, len(arr)
+    while left &lt; right:
+        mid = (right + left) // 2
+        if arr[mid] &lt; target:
+            left = mid + 1
+        else:
+            right = mid
+    return left  # left will be the position to insert the target</t>
+  </si>
+  <si>
+    <t>278. First Bad Version</t>
+  </si>
+  <si>
+    <t>sampling with weight</t>
+  </si>
+  <si>
+    <t>528. Random Pick with Weight</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># frequency intersection
+common_counts &amp;= collections.Counter(word) 
+common = collections.Counter(nums1) &amp; collections.Counter(nums2)
+return common.elements()
+</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t># unique intersection 
+set(nums1).intersection(set(nums2))</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>len(nums)*(len(nums) + 1)//2</t>
+  </si>
+  <si>
+    <t>Next permutation of list nums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def nextPermutation(self, nums):
+        n = len(nums)
+        pivot = -1
+        # find the pivot
+        for i in range(n-2, -1, -1):
+            if nums[i] &lt; nums[i+1]:
+                pivot = i
+                break
+        # if not pivot, reserve the array
+        if pivot == -1:
+            nums.reverse()
+            return
+        # find the successor
+        for i in range(n-1, pivot, -1):
+            if nums[i] &gt; nums[pivot]:
+                nums[i], nums[pivot] = nums[pivot], nums[i]
+                break
+        # reverse the suffix
+        nums[pivot+1: ] = reversed(nums[pivot+1: ])
+        </t>
+  </si>
+  <si>
+    <t>31. Next Permutation</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It turns out two coordinates are on the same diagonal if and only if r1 - c1 == r2 - c2.</t>
+  </si>
+  <si>
+    <t>463. Island Perimeter</t>
+  </si>
+  <si>
+    <t>sorting</t>
+  </si>
+  <si>
+    <t>sorted() returns a new sorted list and leaves the original iterable unchanged.
+.sort() does not return anything (None) but modifies the original list directly.</t>
+  </si>
+  <si>
+    <t>counts_list = [(val1, freq1), (val2, freq2)]
+# sort them in decreasing order.
+counts_list.sort(key=lambda x: x[0], reverse=True)
+# sort based on the frequency of the values
+counts_list.sort(key=lambda x: x[1])</t>
+  </si>
+  <si>
+    <t>252. Meeting Rooms
+1854. Maximum Population Year</t>
+  </si>
+  <si>
+    <t>UDF key - cmp_to_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def largestNumber(self, nums):
+        def compare(x, y):
+            if x + y &gt; y + x:
+                return -1 # x should come before y
+            elif x + y &lt; y + x:
+                return 1
+            else:
+                return 0
+        nums_str = list(map(str, nums))
+        # The cmp_to_key function in Python is used to convert a comparison function (which takes two arguments and returns a negative, zero, or positive value) into a key function (which takes a single argument and returns a value). 
+        nums_str.sort(key=functools.cmp_to_key(compare))
+        if nums_str[0] == "0":
+            return "0"
+        return "".join(nums_str)</t>
+  </si>
+  <si>
+    <t>179. Largest Number</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>reverse for loop:
+for i in range(len(digits) - 1, -1, -1)</t>
+  </si>
+  <si>
+    <t>loop over a sub with len m</t>
+  </si>
+  <si>
+    <t>n = len(array)
+m = len(sub)
+for i in range(n - m + 1):
+....</t>
+  </si>
+  <si>
+    <t>1566. Detect Pattern of Length M Repeated K or More Times</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Kth largest/smallest number - In problems where we have to find kth largest/smallest number, we can always start by using any one of these three methods: sorting the array, using a priority queue, or using a sorted set.
+As these three methods keep array elements in sorted order and it's easy to find the required element.</t>
+  </si>
+  <si>
+    <t>import heapq
+# Create a heap
+heap = []
+# Add items to the heap
+heapq.heappush(heap, 5)
+heapq.heappush(heap, 1)
+heapq.heappush(heap, 3)
+# Push 2, then pop the smallest 1
+smallest = heapq.heappushpop(heap, 2) 
+# Pop the smallest item 2
+smallest = heapq.heappop(heap)
+# Heapify a list
+numbers = [5, 2, 9, 1, 5, 6]
+heapq.heapify(numbers)
+print(numbers)  # Output: [1, 2, 9, 5, 5, 6] (heap structure)
+# Get the 3 largest and 3 smallest elements
+largest = heapq.nlargest(3, numbers)
+smallest = heapq.nsmallest(3, numbers)
+print(largest)  # Output: [9, 6, 5]
+print(smallest)  # Output: [1, 2, 5]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/</t>
+  </si>
+  <si>
+    <t>Kth Largest</t>
+  </si>
+  <si>
+    <t>class KthLargest:
+    def __init__(self, k: int, nums: List[int]):
+        self.k = k
+        self.heap = nums
+        heapq.heapify(self.heap)
+        while len(self.heap) &gt; k:
+            heapq.heappop(self.heap)
+    def add(self, val: int) -&gt; int:
+        heapq.heappush(self.heap, val)
+        if len(self.heap) &gt; self.k:
+            heapq.heappop(self.heap)
+        return self.heap[0]</t>
+  </si>
+  <si>
+    <t>Max heap</t>
+  </si>
+  <si>
+    <t>def findRelativeRanks(self, score):
+        # max heap
+        heap = []
+        for i, val in enumerate(score):
+            heapq.heappush(heap, (-val, i))
+        ans = [0] * len(score)
+        rank = 1
+        while heap:
+            origin_index = heapq.heappop(heap)[1]
+            if rank == 1:
+                ans[origin_index] = "Gold Medal"
+            elif rank == 2:
+                ans[origin_index] = "Silver Medal"
+            elif rank == 3:
+                ans[origin_index] = "Bronze Medal"
+            else:
+                ans[origin_index] = str(rank)
+            rank += 1
+        return ans</t>
+  </si>
+  <si>
+    <t>506. Relative Ranks</t>
+  </si>
+  <si>
+    <t>Top K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def highFive(self, items):
+        score_dict = collections.defaultdict(list)
+        for sid, score in items:
+            heapq.heappush(score_dict[sid], score)
+            if len(score_dict[sid]) &gt; 5:
+                heapq.heappop(score_dict[sid])
+        result = []
+        for sid in sorted(score_dict.keys()):
+            high_five = score_dict[sid]
+            average = sum(high_five) // 5
+            result.append([sid, average])
+        return result</t>
+  </si>
+  <si>
+    <t>1086. High Five</t>
+  </si>
+  <si>
+    <t>Additional info - index</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def getFinalState(self, nums, k, multiplier):
+        min_heap = [(num, i) for i, num in enumerate(nums)]
+        heapq.heapify(min_heap)
+        for _ in range(k):
+            min_val, min_idx = heapq.heappop(min_heap)
+            min_val *= multiplier
+            nums[min_idx] = min_val
+            heapq.heappush(min_heap, (min_val, min_idx))
+        return nums</t>
+  </si>
+  <si>
+    <t>3264. Final Array State After K Multiplication Operations I</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Strings are Anagram to each other</t>
+  </si>
+  <si>
+    <t>Sorting or counter</t>
+  </si>
+  <si>
+    <t>string comparison: compare each pair of adjacent words. find the first letter that is different. if we didn't find a first difference, if the latter word is shorter, then words is not sorted.</t>
+  </si>
+  <si>
+    <t>Two strings are similar if they consist of the same characters.</t>
+  </si>
+  <si>
+    <t>Set. To be used as hash table key, then tuple(sorted(set(word)))</t>
+  </si>
+  <si>
+    <t>palindrome</t>
+  </si>
+  <si>
+    <t>2 pointers</t>
+  </si>
+  <si>
+    <t>merge strings - leverage list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def mergeAlternately(self, word1: str, word2: str) -&gt; str:
+        result = []
+        n = max(len(word1), len(word2))
+        for i in range(n):
+            if i &lt; len(word1):
+                result.append(word1[i])
+            if i &lt; len(word2):
+                result.append(word2[i])
+        return "".join(result)</t>
+  </si>
+  <si>
+    <t>Common Characters (track duplicates)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def intersect(self, nums1, nums2):
+        intersection = collections.Counter(nums1) &amp; collections.Counter(nums2)
+        return intersection.elements()
+    def intersect(self, nums1, nums2):
+        common_counts = collections.Counter(nums1)
+        current_counts = collections.Counter(nums2)
+        for letter in common_counts.keys():
+            common_counts[letter] = min(common_counts[letter], current_counts[letter])
+        result = []
+        for key, count in common_counts.items():
+            for _ in range(count):
+                result.append(key)
+        return result</t>
+  </si>
+  <si>
+    <t>1.find the shortest 
+2.loop part of the shortest to compare against all elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Two Hash Maps</t>
+  </si>
+  <si>
+    <t>205. Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>add strings / math</t>
+  </si>
+  <si>
+    <t>415. Add Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def addStrings(self, num1: str, num2: str) -&gt; str:
+        n = max(len(num1), len(num2))
+        num1, num2 = num1.zfill(n), num2.zfill(n)
+        carry = 0
+        ans = []
+        for i in range(n-1, -1, -1):
+            carry += int(num1[i])
+            carry += int(num2[i])
+            ans.append(str(carry % 10))
+            carry //= 10
+        if carry == 1:
+            ans.append("1")
+        return "".join(ans[::-1])
+        </t>
+  </si>
+  <si>
+    <t>string matching (check if we can get goal by rotating s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    def rotateString(self, s, goal):
+        return len(s) == len(goal) and goal in s+s
+</t>
+  </si>
+  <si>
+    <t>string functions</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; ord("A")
+65
+&gt;&gt;&gt; chr(65)
+'A'</t>
+  </si>
+  <si>
+    <t>isnumeric()
+isalpha()
+isalnum()</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t># convert binary string to int
+int(binary_str, 2)
+# int to binary string
+"{0:b}".format(4)
+# integer to binary string
+bin(integer)[2:]</t>
+  </si>
+  <si>
+    <t>string format</t>
+  </si>
+  <si>
+    <t>"{}-{}-{}".format(YYYY, MM, DD)
+f"{YYYY}-{MM}-{DD}"</t>
+  </si>
+  <si>
+    <t>Circular array</t>
+  </si>
+  <si>
+    <t># Extend the array to simulate circular behavior
+concated_nums = nums + nums</t>
+  </si>
+  <si>
+    <t>simulate a circle with queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def findTheWinner(self, n, k):
+        circle = collections.deque(range(1, n+1))
+        while len(circle) &gt; 1:
+            for _ in range(k-1):
+                # move k-1 to the queue end
+                circle.append(circle.popleft())
+            circle.popleft()
+        return circle[0]</t>
+  </si>
+  <si>
+    <t>1823. Find the Winner of the Circular Game</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>subarray sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def subarraySum(self, nums, k):
+        count = 0
+        prefix_sums = {0: 1}
+        prefix_sum = 0
+        for num in nums:
+            prefix_sum += num
+            if prefix_sum - k in prefix_sums:
+                count += prefix_sums[prefix_sum - k]
+            if prefix_sum not in prefix_sums:
+                prefix_sums[prefix_sum] = 1
+            else:
+                prefix_sums[prefix_sum] += 1
+        return count
+</t>
+  </si>
+  <si>
+    <t>560. Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>BST sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def rangeSumBST(self, root, low, high):
+        if root is None:
+            return 0
+        if low &lt;= root.val &lt;= high:
+            return root.val + self.rangeSumBST(root.left, low, high) + self.rangeSumBST(root.right, low, high)
+        elif root.val &gt; high:
+            return self.rangeSumBST(root.left, low, high)
+        else:
+            return self.rangeSumBST(root.right, low, high)</t>
+  </si>
+  <si>
+    <t>938. Range Sum of BST</t>
+  </si>
+  <si>
+    <t>Max depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def maxDepth(self, root):
+        if root is None:
+            return 0
+        return max(self.maxDepth(root.left), self.maxDepth(root.right)) + 1</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Is Mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        def isMirror(node1, node2):
+            if node1 is None and node2 is None:
+                return True
+            if node1 and node2 and node1.val == node2.val:
+                return isMirror(node1.left, node2.right) and isMirror(node1.right, node2.left)
+            else:
+                return False</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def invertTree(self, root):
+        if not root:
+            return root
+        root.left, root.right = self.invertTree(root.right), self.invertTree(root.left)
+        return root</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Search isn't the only thing BFS is good for. BFS is a traversal algorithm. That means it is an algorithm that visits every node in a tree-that is, it traverses or walks the tree.</t>
+  </si>
+  <si>
+    <t>queue = collections.deque()
+        queue.append((root, 0))
+        while queue:
+            node, accum = queue.popleft()
+            if node is not None:
+                if node.left is None and node.right is None:
+                    if accum + node.val == targetSum:
+                        return True
+                queue.append((node.left, accum+node.val))
+                queue.append((node.right, accum+node.val))</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    def targetIndices(self, nums, target):
-        nums.sort()
-        def </t>
+      <t xml:space="preserve">BFS is suitable for finding the </t>
     </r>
     <r>
       <rPr>
@@ -496,7 +1011,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>find_first_index</t>
+      <t>shortest</t>
     </r>
     <r>
       <rPr>
@@ -506,96 +1021,214 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(nums, target):
-            left = 0
-            right = len(nums) - 1
-            while left &lt;= right:
-                mid = (left + right) // 2
-                if nums[mid] == target:
-                    right = mid - 1
-                elif nums[mid] &lt; target:
-                    left = mid + 1
+      <t xml:space="preserve"> path in an unweighted graph, and in this case, each state of the lock can be considered a node in the graph.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def openLock(self, deadends, target):
+        deadset = set(deadends)
+        if "0000" in deadset:
+            return -1
+        queue = collections.deque([("0000", 0)])
+        seen = set("0000")
+        while queue:
+            curr_state, turn = queue.popleft()
+            if curr_state == target:
+                return turn
+            for i in range(4):
+                for direction in [-1, 1]:
+                    new_wheel = (int(curr_state[i]) + direction) % 10
+                    new_state = curr_state[:i] + str(new_wheel) + curr_state[i+1:]
+                    if new_state not in deadset and new_state not in seen:
+                        queue.append((new_state, turn+1))
+                        seen.add(new_state)
+        return -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">752. Open the Lock
+</t>
+  </si>
+  <si>
+    <t>DFS
+DFS cannot be used for finding the shortest path.</t>
+  </si>
+  <si>
+    <t>def rangeSumBST(self, root, low, high):
+        def dfs(node):
+            if node:
+                if low &lt;= node.val &lt;= high:
+                    ans[0] += node.val
+                    dfs(node.left)
+                    dfs(node.right)
+                elif node.val &lt; low:
+                    dfs(node.right)
                 else:
-                    right = mid - 1
-            return left
-        def </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>find_last_index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(nums, target):
-            left = 0
-            right = len(nums) - 1
-            while left &lt;= right:
-                mid = (left + right) // 2
-                if nums[mid] == target:
-                    left = mid + 1
-                elif nums[mid] &lt; target:
-                    left = mid + 1
+                    dfs(node.left)
+        ans = [0]
+        dfs(root)
+        return ans[0]</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def rangeSumBST(self, root, low, high):
+        stack = [root]
+        ans = 0
+        while stack:
+            node = stack.pop()
+            if node:
+                if low &lt;= node.val &lt;= high:
+                    ans += node.val
+                    stack.append(node.left)
+                    stack.append(node.right)
+                elif node.val &lt; low:
+                    stack.append(node.right)
                 else:
-                    right = mid - 1
-            return right
-        first_index = find_first_index(nums, target)
-        last_index = find_last_index(nums, target)
-        return [] if first_index == -1 else [i for i in range(first_index, last_index+1)]
+                    stack.append(node.left)
+        return ans</t>
+  </si>
+  <si>
+    <t>Carry extra info (length)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def maxDepth(self, root):
+        stack = [(root, 1)]
+        depth = 0
+        while stack:
+            node, node_dep = stack.pop()
+            if node is not None:
+                depth = max(depth, node_dep)
+                stack.append((node.left, node_dep+1))
+                stack.append((node.right, node_dep+1))
+        return depth
         </t>
-    </r>
-  </si>
-  <si>
-    <t>2089. Find Target Indices After Sorting Array
-1150. Check If a Number Is Majority Element in a Sorted Array</t>
-  </si>
-  <si>
-    <t>bisect.bisect_left(nums, target) - sorted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def bisect_left(nums, target):
-    lo, hi = 0, len(nums)
-    while lo &lt; hi:
-        mid = (lo + hi) // 2
-        if nums[mid] &lt; target:
-            lo = mid + 1
-        else:
-            hi = mid
-    return lo
+  </si>
+  <si>
+    <t>Carry extra info (mirror tree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def isSymmetric(self, root):
+        stack = [(root, root)]
+        while stack:
+            node1, node2 = stack.pop()
+            if node1 is None and node2 is None:
+                continue
+            if node1 and node2 and node1.val == node2.val:
+                stack.append((node1.left, node2.right))
+                stack.append((node1.right, node2.left))
+            else:
+                return False
+        return True</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree
+100. Same Tree</t>
+  </si>
+  <si>
+    <t>Carry multiple fields (depth &amp; parent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def isCousins(self, root, x, y):
+        results = []
+        stack = [(root, 1, None)]
+        while stack:
+            node, depth, parent = stack.pop()
+            if node:
+                if node.val == x or node.val == y:
+                    results.append((depth, parent))
+                    if len(results) == 2:
+                        break
+                stack.append((node.left, depth+1, node))
+                stack.append((node.right, depth+1, node))
+        return results[0][0] == results[1][0] and results[0][1] != results[1][1]
 </t>
   </si>
   <si>
-    <t>bisect.bisect_right(nums, target) - sorted</t>
-  </si>
-  <si>
-    <t>def bisect_right(nums, target):
-    lo, hi = 0, len(nums)
-    while lo &lt; hi:
-        mid = (lo + hi) // 2
-        if nums[mid] &gt; target:
-            hi = mid
-        else:
-            lo = mid + 1
-    return lo</t>
-  </si>
-  <si>
-    <t>2389. Longest Subsequence With Limited Sum
-744. Find Smallest Letter Greater Than Target</t>
-  </si>
-  <si>
-    <t>binary search tree</t>
+    <t>993. Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def invertTree(self, root):
+        stack = [root]
+        while stack:
+            node = stack.pop()
+            if node:
+                node.left, node.right = node.right, node.left
+                stack.append(node.left)
+                stack.append(node.right)
+        return root</t>
+  </si>
+  <si>
+    <t>Parent node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def delNodes(self, root, to_delete):
+        stack = [root]
+        to_delete_set = set(to_delete)
+        tree = []
+        while stack:
+            node = stack.pop()
+            if node:
+                if node.left:
+                    stack.append(node.left)
+                    if node.left.val in to_delete_set:
+                        node.left = None
+                if node.right:
+                    stack.append(node.right)
+                    if node.right.val in to_delete_set:
+                        node.right = None
+                if node.val in to_delete_set:
+                    if node.left is not None:
+                        tree.append(node.left)
+                    if node.right is not None:
+                        tree.append(node.right)
+        if root.val not in to_delete_set:
+            tree.append(root)
+        return tree
+</t>
+  </si>
+  <si>
+    <t>1110. Delete Nodes And Return Forest</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>BST: left child &lt; node &lt; right child; all the numbers in the left child subtree are smaller than the node</t>
+  </si>
+  <si>
+    <t>If we can guarantee the height of our tree will be O(logn), the searching the tree will be O(logn)</t>
+  </si>
+  <si>
+    <t>Insertions are just a matter of searching for a place to insert the node and adding a pointer, just like a linked list. So insertions are O(logn) as well.</t>
+  </si>
+  <si>
+    <t>an inorder traversal handles the nodes in sorted order
+* cache prev value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def getMinimumDifference(self, root):
+        def inorder(node):
+            if node is None:
+                return None
+            inorder(node.left)
+            if prev[0] is not None:
+                min_diff[0] = min(min_diff[0], node.val - prev[0])
+            prev[0] = node.val
+            inorder(node.right)
+        prev = [None]
+        min_diff = [float('inf')]
+        inorder(root)
+        return min_diff[0]</t>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
   </si>
   <si>
     <t xml:space="preserve">class Solution(object):
@@ -621,475 +1254,6 @@
     <t>270. Closest Binary Search Tree Value</t>
   </si>
   <si>
-    <t>Counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># frequency intersection
-common_counts &amp;= collections.Counter(word) 
-common = collections.Counter(nums1) &amp; collections.Counter(nums2)
-return common.elements()
-</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t># unique intersection 
-set(nums1).intersection(set(nums2))</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>len(nums)*(len(nums) + 1)//2</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It turns out two coordinates are on the same diagonal if and only if r1 - c1 == r2 - c2.</t>
-  </si>
-  <si>
-    <t>463. Island Perimeter</t>
-  </si>
-  <si>
-    <t>sorting</t>
-  </si>
-  <si>
-    <t>sorted() returns a new sorted list and leaves the original iterable unchanged.
-.sort() does not return anything (None) but modifies the original list directly.</t>
-  </si>
-  <si>
-    <t>counts_list = [(val1, freq1), (val2, freq2)]
-# sort them in decreasing order.
-counts_list.sort(key=lambda x: x[0], reverse=True)
-# sort based on the frequency of the values
-counts_list.sort(key=lambda x: x[1])</t>
-  </si>
-  <si>
-    <t>252. Meeting Rooms
-1854. Maximum Population Year</t>
-  </si>
-  <si>
-    <t>loop</t>
-  </si>
-  <si>
-    <t>reverse for loop:
-for i in range(len(digits) - 1, -1, -1)</t>
-  </si>
-  <si>
-    <t>loop over a sub with len m</t>
-  </si>
-  <si>
-    <t>n = len(array)
-m = len(sub)
-for i in range(n - m + 1):
-....</t>
-  </si>
-  <si>
-    <t>1566. Detect Pattern of Length M Repeated K or More Times</t>
-  </si>
-  <si>
-    <t>Heap</t>
-  </si>
-  <si>
-    <t>Kth largest/smallest number - In problems where we have to find kth largest/smallest number, we can always start by using any one of these three methods: sorting the array, using a priority queue, or using a sorted set.
-As these three methods keep array elements in sorted order and it's easy to find the required element.</t>
-  </si>
-  <si>
-    <t>import heapq
-        min_heap = []
-        seen = set()
-        for i in range(len(nums)):
-            if nums[i] in seen:
-                continue
-            heapq.heappush(min_heap, nums[i])
-            if len(min_heap) &gt; 3:
-                heapq.heappop(min_heap)
-            seen.add(nums[i])
-        if len(min_heap) == 2:
-            heapq.heappop(min_heap)
-        return min_heap[0]</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/</t>
-  </si>
-  <si>
-    <t>class KthLargest:
-    def __init__(self, k: int, nums: List[int]):
-        self.k = k
-        self.heap = nums
-        heapq.heapify(self.heap)
-        while len(self.heap) &gt; k:
-            heapq.heappop(self.heap)
-    def add(self, val: int) -&gt; int:
-        heapq.heappush(self.heap, val)
-        if len(self.heap) &gt; self.k:
-            heapq.heappop(self.heap)
-        return self.heap[0]</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Strings are Anagram to each other</t>
-  </si>
-  <si>
-    <t>Sorting or counter</t>
-  </si>
-  <si>
-    <t>string comparison: compare each pair of adjacent words. find the first letter that is different. if we didn't find a first difference, if the latter word is shorter, then words is not sorted.</t>
-  </si>
-  <si>
-    <t>Two strings are similar if they consist of the same characters.</t>
-  </si>
-  <si>
-    <t>Set. To be used as hash table key, then tuple(sorted(set(word)))</t>
-  </si>
-  <si>
-    <t>palindrome</t>
-  </si>
-  <si>
-    <t>2 pointers</t>
-  </si>
-  <si>
-    <t>merge strings - leverage list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def mergeAlternately(self, word1: str, word2: str) -&gt; str:
-        result = []
-        n = max(len(word1), len(word2))
-        for i in range(n):
-            if i &lt; len(word1):
-                result.append(word1[i])
-            if i &lt; len(word2):
-                result.append(word2[i])
-        return "".join(result)</t>
-  </si>
-  <si>
-    <t>Common Characters (track duplicates)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def intersect(self, nums1, nums2):
-        intersection = collections.Counter(nums1) &amp; collections.Counter(nums2)
-        return intersection.elements()
-    def intersect(self, nums1, nums2):
-        common_counts = collections.Counter(nums1)
-        current_counts = collections.Counter(nums2)
-        for letter in common_counts.keys():
-            common_counts[letter] = min(common_counts[letter], current_counts[letter])
-        result = []
-        for key, count in common_counts.items():
-            for _ in range(count):
-                result.append(key)
-        return result</t>
-  </si>
-  <si>
-    <t>1.find the shortest 
-2.loop part of the shortest to compare against all elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Isomorphic Strings</t>
-  </si>
-  <si>
-    <t>Two Hash Maps</t>
-  </si>
-  <si>
-    <t>205. Isomorphic Strings</t>
-  </si>
-  <si>
-    <t>add strings / math</t>
-  </si>
-  <si>
-    <t>415. Add Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Solution:
-    def addStrings(self, num1: str, num2: str) -&gt; str:
-        n = max(len(num1), len(num2))
-        num1, num2 = num1.zfill(n), num2.zfill(n)
-        carry = 0
-        ans = []
-        for i in range(n-1, -1, -1):
-            carry += int(num1[i])
-            carry += int(num2[i])
-            ans.append(str(carry % 10))
-            carry //= 10
-        if carry == 1:
-            ans.append("1")
-        return "".join(ans[::-1])
-        </t>
-  </si>
-  <si>
-    <t>string matching (check if we can get goal by rotating s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    def rotateString(self, s, goal):
-        return len(s) == len(goal) and goal in s+s
-</t>
-  </si>
-  <si>
-    <t>string functions</t>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt; ord("A")
-65
-&gt;&gt;&gt; chr(65)
-'A'</t>
-  </si>
-  <si>
-    <t>isnumeric()
-isalpha()
-isalnum()</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t># convert binary string to int
-int(binary_str, 2)
-# int to binary string
-"{0:b}".format(4)</t>
-  </si>
-  <si>
-    <t>Recursion</t>
-  </si>
-  <si>
-    <t>BST sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def rangeSumBST(self, root, low, high):
-        if root is None:
-            return 0
-        if low &lt;= root.val &lt;= high:
-            return root.val + self.rangeSumBST(root.left, low, high) + self.rangeSumBST(root.right, low, high)
-        elif root.val &gt; high:
-            return self.rangeSumBST(root.left, low, high)
-        else:
-            return self.rangeSumBST(root.right, low, high)</t>
-  </si>
-  <si>
-    <t>938. Range Sum of BST</t>
-  </si>
-  <si>
-    <t>Max depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def maxDepth(self, root):
-        if root is None:
-            return 0
-        return max(self.maxDepth(root.left), self.maxDepth(root.right)) + 1</t>
-  </si>
-  <si>
-    <t>104. Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>Is Mirror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        def isMirror(node1, node2):
-            if node1 is None and node2 is None:
-                return True
-            if node1 and node2 and node1.val == node2.val:
-                return isMirror(node1.left, node2.right) and isMirror(node1.right, node2.left)
-            else:
-                return False</t>
-  </si>
-  <si>
-    <t>101. Symmetric Tree</t>
-  </si>
-  <si>
-    <t>Invert Binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def invertTree(self, root):
-        if not root:
-            return root
-        root.left, root.right = self.invertTree(root.right), self.invertTree(root.left)
-        return root</t>
-  </si>
-  <si>
-    <t>226. Invert Binary Tree</t>
-  </si>
-  <si>
-    <t>BFS</t>
-  </si>
-  <si>
-    <t>Search isn't the only thing BFS is good for. BFS is a traversal algorithm. That means it is an algorithm that visits every node in a tree-that is, it traverses or walks the tree.</t>
-  </si>
-  <si>
-    <t>queue = collections.deque()
-        queue.append((root, 0))
-        while queue:
-            node, accum = queue.popleft()
-            if node is not None:
-                if node.left is None and node.right is None:
-                    if accum + node.val == targetSum:
-                        return True
-                queue.append((node.left, accum+node.val))
-                queue.append((node.right, accum+node.val))</t>
-  </si>
-  <si>
-    <t>DFS
-DFS cannot be used for finding the shortest path.</t>
-  </si>
-  <si>
-    <t>def rangeSumBST(self, root, low, high):
-        def dfs(node):
-            if node:
-                if low &lt;= node.val &lt;= high:
-                    ans[0] += node.val
-                    dfs(node.left)
-                    dfs(node.right)
-                elif node.val &lt; low:
-                    dfs(node.right)
-                else:
-                    dfs(node.left)
-        ans = [0]
-        dfs(root)
-        return ans[0]</t>
-  </si>
-  <si>
-    <t>Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def rangeSumBST(self, root, low, high):
-        stack = [root]
-        ans = 0
-        while stack:
-            node = stack.pop()
-            if node:
-                if low &lt;= node.val &lt;= high:
-                    ans += node.val
-                    stack.append(node.left)
-                    stack.append(node.right)
-                elif node.val &lt; low:
-                    stack.append(node.right)
-                else:
-                    stack.append(node.left)
-        return ans</t>
-  </si>
-  <si>
-    <t>Carry extra info (length)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def maxDepth(self, root):
-        stack = [(root, 1)]
-        depth = 0
-        while stack:
-            node, node_dep = stack.pop()
-            if node is not None:
-                depth = max(depth, node_dep)
-                stack.append((node.left, node_dep+1))
-                stack.append((node.right, node_dep+1))
-        return depth
-        </t>
-  </si>
-  <si>
-    <t>Carry extra info (mirror tree)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def isSymmetric(self, root):
-        stack = [(root, root)]
-        while stack:
-            node1, node2 = stack.pop()
-            if node1 is None and node2 is None:
-                continue
-            if node1 and node2 and node1.val == node2.val:
-                stack.append((node1.left, node2.right))
-                stack.append((node1.right, node2.left))
-            else:
-                return False
-        return True</t>
-  </si>
-  <si>
-    <t>101. Symmetric Tree
-100. Same Tree</t>
-  </si>
-  <si>
-    <t>Carry multiple fields (depth &amp; parent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def isCousins(self, root, x, y):
-        results = []
-        stack = [(root, 1, None)]
-        while stack:
-            node, depth, parent = stack.pop()
-            if node:
-                if node.val == x or node.val == y:
-                    results.append((depth, parent))
-                    if len(results) == 2:
-                        break
-                stack.append((node.left, depth+1, node))
-                stack.append((node.right, depth+1, node))
-        return results[0][0] == results[1][0] and results[0][1] != results[1][1]
-</t>
-  </si>
-  <si>
-    <t>993. Cousins in Binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def invertTree(self, root):
-        stack = [root]
-        while stack:
-            node = stack.pop()
-            if node:
-                node.left, node.right = node.right, node.left
-                stack.append(node.left)
-                stack.append(node.right)
-        return root</t>
-  </si>
-  <si>
-    <t>Binary Search Tree</t>
-  </si>
-  <si>
-    <t>BST: left child &lt; node &lt; right child; all the numbers in the left child subtree are smaller than the node</t>
-  </si>
-  <si>
-    <t>If we can guarantee the height of our tree will be O(logn), the searching the tree will be O(logn)</t>
-  </si>
-  <si>
-    <t>Insertions are just a matter of searching for a place to insert the node and adding a pointer, just like a linked list. So insertions are O(logn) as well.</t>
-  </si>
-  <si>
-    <t>Binary search</t>
-  </si>
-  <si>
-    <t>class Solution2(object):
-    def searchBST(self, root, val):
-        while root:
-            if root.val == val:
-                return root
-            if root.val &lt; val:
-                root = root.right
-            else:
-                root = root.left
-        return None</t>
-  </si>
-  <si>
-    <t>an inorder traversal handles the nodes in sorted order
-* cache prev value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def getMinimumDifference(self, root):
-        def inorder(node):
-            if node is None:
-                return None
-            inorder(node.left)
-            if prev[0] is not None:
-                min_diff[0] = min(min_diff[0], node.val - prev[0])
-            prev[0] = node.val
-            inorder(node.right)
-        prev = [None]
-        min_diff = [float('inf')]
-        inorder(root)
-        return min_diff[0]</t>
-  </si>
-  <si>
-    <t>530. Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
     <t>Inorder Traversal</t>
   </si>
   <si>
@@ -1202,6 +1366,64 @@
 </t>
   </si>
   <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degree count: In graph theory, we call the number of connections a node has its "degree". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def findCenter(self, edges):
+        graph = {}
+        for n1, n2 in edges:
+            graph[n1] = graph.get(n1, 0) + 1
+            graph[n2] = graph.get(n2, 0) + 1
+        for node, count in graph.items():
+            if count == len(edges):
+                return node
+</t>
+  </si>
+  <si>
+    <t>1791. Find Center of Star Graph</t>
+  </si>
+  <si>
+    <t>matrix - DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def validPath(self, n, edges, source, destination):
+        # Store all edges according to nodes in 'graph'.
+        graph = collections.defaultdict(list)
+        for n1, n2 in edges:
+            graph[n1].append(n2)
+            graph[n2].append(n1)
+        stack = [source]
+        seen = {source}
+        while stack:
+            node = stack.pop()
+            if node == destination:
+                return True
+            for next_node in graph[node]:
+                if next_node not in seen:
+                    stack.append(next_node)
+                    seen.add(next_node)
+        return False
+</t>
+  </si>
+  <si>
+    <t>1971. Find if Path Exists in Graph
+2368. Reachable Nodes With Restrictions</t>
+  </si>
+  <si>
+    <t>Degree count: directional</t>
+  </si>
+  <si>
+    <t>trusted = {}
+trusting = {}</t>
+  </si>
+  <si>
+    <t>997. Find the Town Judge</t>
+  </si>
+  <si>
     <t>Two pointers</t>
   </si>
   <si>
@@ -1328,10 +1550,20 @@
 </t>
   </si>
   <si>
-    <t>All the possible subsets are known as the power set, which includes all combinations of different lengths, ranging from 0 to N.</t>
-  </si>
-  <si>
-    <t>A common way to generate subsets is using backtracking.</t>
+    <t>all subsets - A common way to generate subsets is using backtracking.</t>
+  </si>
+  <si>
+    <t>def backtrack(nums, start, curr, subsets):
+            subsets.append(curr[:])
+            for i in range(start, len(nums)):
+                curr.append(nums[i])
+                backtrack(nums, i+1, curr, subsets)
+                curr.pop()
+        subsets = []
+        backtrack(nums, 0, [], subsets)</t>
+  </si>
+  <si>
+    <t>1863. Sum of All Subset XOR Totals</t>
   </si>
   <si>
     <t xml:space="preserve">        def generate_subsets(nums, index, subset, subsets):
@@ -1348,22 +1580,43 @@
             generate_subsets(nums, index+1, subset, subsets)
         # generate all of the subsets
         subsets = []
-        generate_subsets(nums, 0, [], subsets)
+        generate_subsets(nums, 0, [], subsets)</t>
+  </si>
+  <si>
+    <t>next greater integer permutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def nextGreaterElement(self, n):
+        digits = list(str(n))
+        n = len(digits)
+        # 1.find the pivot
+        # Starting from the rightmost end, find the first pair of adjacent digits where the left digit is smaller than the right digit. 
+        pivot = -1
+        for  i in range(n - 2, -1, -1):
+            if digits[i] &lt; digits[i+1]:
+                pivot = i
+                break
+        # If no pivot found, this is the highest permutation
+        if pivot == -1:
+            return -1
+        # 2. find the successor and swap with pivot
+        # From the right end, find the smallest digit that is larger than the pivot digit.
+        for i in range(n-1, pivot, -1):
+            if digits[i] &gt; digits[pivot]:
+                digits[i], digits[pivot] = digits[pivot], digits[i]
+                break
+        # 3. Reverse the Suffix
+        # Reverse the sequence of digits to the right of the pivot position to get the smallest possible order.
+        digits = digits[:pivot+1] + digits[pivot+1:][::-1]
+        ans = int("".join(digits))
+        if ans &gt; 2 ** 31 - 1:
+            return -1
+        return ans
 </t>
   </si>
   <si>
-    <t xml:space="preserve">def generate_subsets(nums, index, current_XOR):
-            if index == len(nums):
-                # Return current_XOR when all elements in nums are already considered
-                return current_XOR
-            # calculate sum of subset xor with current element
-            with_element = generate_subsets(nums, index+1, current_XOR ^ nums[index])
-            # calculate sum of xor without current element
-            without_element = generate_subsets(nums, index+1, current_XOR)
-            # return sum of xor totals
-            return with_element + without_element
-        return generate_subsets(nums, 0, 0)
-</t>
+    <t>556. Next Greater Element III</t>
   </si>
   <si>
     <t>write a python solution for the question below:
@@ -1568,12 +1821,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1873,103 +2132,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1984,7 +2243,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2005,10 +2264,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2018,13 +2277,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2032,14 +2294,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
@@ -2049,16 +2311,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2389,518 +2645,594 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:E98"/>
+  <dimension ref="A2:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A53" sqref="$A50:$XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="74.6875" customWidth="1"/>
     <col min="3" max="3" width="44.4375" customWidth="1"/>
     <col min="4" max="4" width="46.1875" customWidth="1"/>
     <col min="5" max="5" width="29.6875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" ht="126" spans="1:4">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
+      <c r="A3" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" ht="42" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="42" spans="2:4">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="28" spans="2:4">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="28" spans="2:4">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="56" spans="2:4">
-      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="15" ht="56" spans="2:4">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" ht="28" spans="2:4">
-      <c r="B19" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="17" ht="182" spans="2:4">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" ht="42" spans="3:4">
-      <c r="C22" t="s">
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="29" ht="98" spans="1:4">
-      <c r="A29" s="9" t="s">
+    <row r="20" ht="42" spans="3:4">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="27" ht="98" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="238" spans="2:5">
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="308" spans="2:4">
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" ht="238" spans="2:5">
-      <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" ht="140" spans="2:4">
+      <c r="B30" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" ht="308" spans="2:4">
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" ht="140" spans="2:4">
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" ht="154" spans="2:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" ht="252" spans="2:4">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" ht="154" spans="2:4">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" ht="336" spans="2:4">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" ht="294" spans="2:4">
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" ht="336" spans="2:4">
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" ht="294" spans="2:4">
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" ht="70" spans="2:4">
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" ht="238" spans="1:4">
-      <c r="A43" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="1" t="s">
+    </row>
+    <row r="37" ht="70" spans="2:4">
+      <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" ht="196" spans="2:4">
-      <c r="B44" s="1" t="s">
+      <c r="D37" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="41" ht="238" spans="1:4">
+      <c r="A41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" ht="210" spans="2:4">
-      <c r="B45" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" t="s">
+    </row>
+    <row r="42" ht="154" spans="2:4">
+      <c r="B42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C42" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" ht="210" spans="1:4">
-      <c r="A50" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D44" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="4" t="s">
+    </row>
+    <row r="47" ht="154" spans="1:4">
+      <c r="A47" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" ht="210" spans="2:4">
-      <c r="B51" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" ht="196" spans="2:4">
-      <c r="B52" s="11" t="s">
+    <row r="48" ht="182" spans="1:4">
+      <c r="A48" s="4"/>
+      <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D48" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" ht="409.5" spans="2:4">
-      <c r="B53" s="12" t="s">
+    <row r="49" ht="140" spans="1:4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D49" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" ht="168" spans="2:4">
-      <c r="B54" s="12" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="12"/>
-    </row>
-    <row r="55" ht="154" spans="2:4">
-      <c r="B55" s="12" t="s">
+    </row>
+    <row r="52" ht="70" spans="1:2">
+      <c r="A52" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="B52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="11" t="s">
+    </row>
+    <row r="53" ht="28" spans="1:2">
+      <c r="A53" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" ht="308" spans="2:4">
+      <c r="B53" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" ht="364" spans="2:4">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" ht="70" spans="1:2">
-      <c r="A58" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" ht="28" spans="1:2">
+      <c r="A58" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" ht="28" spans="1:2">
-      <c r="A59" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" t="s">
         <v>83</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="59" ht="70" spans="2:3">
+      <c r="B59" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="63" ht="28" spans="1:2">
-      <c r="A63" s="9" t="s">
+      <c r="C59" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="60" ht="308" spans="2:4">
+      <c r="B60" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" ht="70" spans="2:3">
-      <c r="B64" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D60" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" ht="28" spans="1:2">
-      <c r="A66" s="9" t="s">
+    <row r="62" ht="28" spans="1:2">
+      <c r="A62" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" ht="56" spans="2:4">
-      <c r="B67" t="s">
+    <row r="63" ht="56" spans="2:4">
+      <c r="B63" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="71" ht="70" spans="1:2">
-      <c r="A71" s="14" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="67" ht="364" spans="1:3">
+      <c r="A67" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="72" ht="280" spans="2:2">
-      <c r="B72" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="15" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" ht="196" spans="2:2">
-      <c r="B74" s="1" t="s">
+    <row r="69" ht="196" spans="2:3">
+      <c r="B69" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="9" t="s">
+      <c r="C69" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="70" ht="294" spans="2:4">
+      <c r="B70" t="s">
         <v>100</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C70" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="78" ht="28" spans="2:2">
-      <c r="B78" s="1" t="s">
+      <c r="D70" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
-      <c r="B79" t="s">
+    <row r="71" ht="210" spans="2:4">
+      <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C71" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" t="s">
+      <c r="D71" t="s">
         <v>105</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="72" ht="210" spans="2:4">
+      <c r="B72" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="83" ht="154" spans="2:3">
-      <c r="B83" t="s">
+      <c r="C72" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" ht="28" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" ht="154" spans="2:3">
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" ht="224" spans="2:3">
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" ht="42" spans="3:4">
       <c r="C83" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" ht="224" spans="2:3">
+        <v>121</v>
+      </c>
+      <c r="D83" s="15">
+        <v>141071</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
       <c r="B85" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" ht="42" spans="3:4">
-      <c r="C86" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86" s="16">
-        <v>141071</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
+        <v>122</v>
+      </c>
+      <c r="C85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" ht="280" spans="3:3">
+      <c r="C88" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" ht="56" spans="2:3">
       <c r="B90" t="s">
-        <v>115</v>
-      </c>
-      <c r="D90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" ht="280" spans="3:3">
-      <c r="C91" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="93" ht="56" spans="2:3">
       <c r="B93" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" ht="56" spans="2:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" ht="42" spans="3:3">
+      <c r="C94" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" ht="84" spans="2:3">
+      <c r="B95" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" ht="28" spans="2:3">
       <c r="B96" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" ht="42" spans="3:3">
-      <c r="C97" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" ht="56" spans="2:3">
-      <c r="B98" t="s">
-        <v>123</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" ht="28" spans="1:2">
+      <c r="A98" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" ht="140" spans="2:4">
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" ht="252" spans="1:4">
+      <c r="A103" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B73" r:id="rId1" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/"/>
+    <hyperlink ref="B68" r:id="rId1" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2910,289 +3242,359 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="11.84375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.5625" style="3" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" customWidth="1"/>
     <col min="4" max="4" width="82.03125" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="140" spans="2:5">
-      <c r="B1" s="3" t="s">
-        <v>125</v>
+      <c r="B1" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>127</v>
+        <v>147</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="70" spans="2:5">
-      <c r="B2" s="4"/>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>150</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" ht="98" spans="2:5">
-      <c r="B3" s="4"/>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>133</v>
+        <v>153</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" ht="84" spans="2:5">
-      <c r="B4" s="4"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>136</v>
+        <v>156</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" ht="168" spans="1:4">
       <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
-        <v>138</v>
+      <c r="B5" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" ht="364" spans="1:5">
       <c r="A6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="7" ht="210" spans="1:4">
       <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
-        <v>141</v>
+      <c r="B7" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" ht="210" spans="1:5">
       <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>144</v>
+        <v>167</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" ht="154" spans="1:5">
       <c r="A9" s="5"/>
       <c r="C9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>146</v>
+        <v>169</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" ht="168" spans="1:5">
       <c r="A10" s="5"/>
       <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>149</v>
+        <v>171</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" ht="210" spans="1:5">
       <c r="A11" s="5"/>
       <c r="C11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>152</v>
+        <v>174</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" ht="126" spans="1:5">
       <c r="A12" s="5"/>
       <c r="C12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" ht="28" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" ht="409.5" spans="1:5">
       <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:3">
       <c r="A14" s="5"/>
-      <c r="C14" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" ht="42" spans="1:3">
+      <c r="B14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="5"/>
-      <c r="C15" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" ht="182" spans="1:4">
+      <c r="C15" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" ht="42" spans="1:3">
       <c r="A16" s="5"/>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>159</v>
+      <c r="C16" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" ht="210" spans="1:5">
       <c r="A17" s="5"/>
       <c r="C17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>161</v>
+        <v>185</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" ht="308" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" ht="238" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" ht="168" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" ht="224" spans="3:5">
+      <c r="C21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" ht="28" spans="2:3">
+      <c r="B24" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" ht="182" spans="2:3">
+      <c r="B36" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" ht="154" spans="1:4">
+      <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" ht="266" spans="2:4">
+      <c r="B40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" ht="378" spans="2:4">
+      <c r="B41" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="18" ht="238" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D41" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" ht="168" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" ht="224" spans="3:5">
-      <c r="C20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" ht="28" spans="2:3">
-      <c r="B23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" ht="182" spans="2:3">
-      <c r="B35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>182</v>
+    </row>
+    <row r="42" ht="28" spans="2:4">
+      <c r="B42" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:A19"/>
+    <mergeCell ref="A5:A20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" display="https://leetcode.com/problems/binary-tree-tilt/"/>
-    <hyperlink ref="C31" r:id="rId2" display="https://leetcode.com/problems/diameter-of-binary-tree/solutions/1515564/python-easy-to-understand-solution-w-explanation/"/>
-    <hyperlink ref="C32" r:id="rId3" display="https://leetcode.com/problems/balanced-binary-tree/description/"/>
+    <hyperlink ref="C31" r:id="rId1" display="https://leetcode.com/problems/binary-tree-tilt/"/>
+    <hyperlink ref="C32" r:id="rId2" display="https://leetcode.com/problems/diameter-of-binary-tree/solutions/1515564/python-easy-to-understand-solution-w-explanation/"/>
+    <hyperlink ref="C33" r:id="rId3" display="https://leetcode.com/problems/balanced-binary-tree/description/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3216,61 +3618,61 @@
   <sheetData>
     <row r="2" ht="112" spans="2:3">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" ht="56" spans="2:3">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" ht="126" spans="2:3">
       <c r="B6" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" ht="98" spans="2:3">
       <c r="B8" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" ht="182" spans="2:3">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="182" spans="2:3">
       <c r="B12" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" ht="154" spans="2:4">
       <c r="B14" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3284,7 +3686,7 @@
   <sheetPr/>
   <dimension ref="A5:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3296,21 +3698,21 @@
   <sheetData>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3322,48 +3724,57 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:B13"/>
+  <dimension ref="A5:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="65.484375" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" ht="112" spans="1:2">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" ht="56" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" ht="28" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" ht="140" spans="2:4">
       <c r="B9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" ht="266" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" ht="252" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" ht="252" spans="3:3">
+      <c r="C10" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" ht="409.5" spans="2:4">
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3388,7 +3799,7 @@
   <sheetData>
     <row r="2" ht="238" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/algos.xlsx
+++ b/algos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14340"/>
+    <workbookView windowWidth="29400" windowHeight="14320" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Array_&amp;_String" sheetId="7" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="DP" sheetId="10" r:id="rId4"/>
     <sheet name="BackTracking" sheetId="11" r:id="rId5"/>
     <sheet name="chat" sheetId="9" r:id="rId6"/>
+    <sheet name="SQL" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="346">
   <si>
     <t>Algo</t>
   </si>
@@ -67,11 +68,23 @@
 345. Reverse Vowels of a String</t>
   </si>
   <si>
-    <t>Move elements</t>
+    <t>Move elements in place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def removeDuplicates(self, nums):
+        unique_index = 0
+        for i in range(1, len(nums)):
+            if nums[i] != nums[unique_index]:
+                unique_index += 1
+                nums[unique_index] = nums[i]
+        return unique_index + 1
+        </t>
   </si>
   <si>
     <t>283. Move Zeroes
-27. Remove Element</t>
+27. Remove Element
+26. Remove Duplicates from Sorted Array</t>
   </si>
   <si>
     <t>Sort + two pointer: We compare the sum of these two elements with the target. If it is smaller than the target, we increment the lower pointer left. Otherwise, we decrement the higher pointer right. Thus, the sum always moves toward the target, and we "prune" pairs that would move it further away.</t>
@@ -99,6 +112,29 @@
 922. Sort Array By Parity II</t>
   </si>
   <si>
+    <t>Sort and pair largest and smallest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def numRescueBoats(self, people, limit):
+        people.sort()
+        count = 0
+        left, right = 0, len(people) - 1
+        while left &lt;= right:
+            # If the lightest and heaviest person can share a boat
+            if people[left] + people[right] &lt;= limit:
+                left += 1
+            # Always move the right pointer as the heaviest person is accommodated
+            right -= 1
+            count += 1
+        return count
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">881. Boats to Save People
+</t>
+  </si>
+  <si>
     <t>REVIEW</t>
   </si>
   <si>
@@ -108,6 +144,26 @@
   </si>
   <si>
     <t>sliding window</t>
+  </si>
+  <si>
+    <t>Moving Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class MovingAverage(object):
+    def __init__(self, size):
+        self.size = size
+        self.window = collections.deque()
+        self.curr_sum = 0.0
+    def next(self, val):
+        self.window.append(val)
+        self.curr_sum += val
+        if len(self.window) &gt; self.size:
+            self.curr_sum -= self.window.popleft()
+        return self.curr_sum / len(self.window)
+</t>
+  </si>
+  <si>
+    <t>346. Moving Average from Data Stream</t>
   </si>
   <si>
     <t>Cumulative Sum (a contiguous subarray)</t>
@@ -126,8 +182,31 @@
 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">finding MAX/LONGEST subarray in array that satisfies the specified conditions
+    <r>
+      <t xml:space="preserve">finding </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAX/LONGEST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subarray in array that satisfies the specified conditions
 Move right pointer </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    def lengthOfLongestSubstring(self, s: str) -&gt; int:
@@ -145,10 +224,12 @@
   </si>
   <si>
     <t>3. Longest Substring Without Repeating Characters
-3090. Maximum Length Substring With Two Occurrences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note - double if to move start:
+3090. Maximum Length Substring With Two Occurrences
+487. Max Consecutive Ones II
+1004. Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note - double "if" to move start:
 def maximumLengthSubstring(self, s):
         n = len(s)
         max_len = 0
@@ -397,7 +478,8 @@
   </si>
   <si>
     <t>20, 1047
-844_Backspace_String_Compare.py</t>
+844_Backspace_String_Compare.py
+3168. Minimum Number of Chairs in a Waiting Room</t>
   </si>
   <si>
     <t>Monotonic Stack
@@ -475,10 +557,14 @@
         return left</t>
   </si>
   <si>
-    <t>278. First Bad Version
+    <t>35. Search Insert Position
+278. First Bad Version
 1351. Count Negative Numbers in a Sorted Matrix
 2389. Longest Subsequence With Limited Sum
-744. Find Smallest Letter Greater Than Target</t>
+744. Find Smallest Letter Greater Than Target
+875. Koko Eating Bananas
+1608. Special Array With X Elements Greater Than or Equal X
+1150. Check If a Number Is Majority Element in a Sorted Array</t>
   </si>
   <si>
     <t>find the position to insert a new element or identify a unique element. 
@@ -508,18 +594,53 @@
     <t>Counter</t>
   </si>
   <si>
-    <t xml:space="preserve"># frequency intersection
+    <t xml:space="preserve"># commen elements
 common_counts &amp;= collections.Counter(word) 
 common = collections.Counter(nums1) &amp; collections.Counter(nums2)
 return common.elements()
 </t>
   </si>
   <si>
+    <t>class Solution(object):
+    def commonChars2(self, words):
+        common_counts = collections.Counter(words[0])
+        for word in words:
+            common_counts &amp;= collections.Counter(word)
+        return common_counts.elements()</t>
+  </si>
+  <si>
+    <t>1002. Find Common Characters
+350. Intersection of Two Arrays II</t>
+  </si>
+  <si>
     <t>Set</t>
   </si>
   <si>
-    <t># unique intersection 
-set(nums1).intersection(set(nums2))</t>
+    <t>Common Elements</t>
+  </si>
+  <si>
+    <t>list(set1.intersection(set2))
+list(set1 &amp; set2)</t>
+  </si>
+  <si>
+    <t>2248. Intersection of Multiple Arrays
+2540. Minimum Common Value</t>
+  </si>
+  <si>
+    <t>set diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def findDifference(self, nums1, nums2):
+        set1 = set(nums1)
+        set2 = set(nums2)
+        diff1 = list(set1 - set2)
+        diff2 = list(set2 - set1)
+        return [diff1, diff2]
+        </t>
+  </si>
+  <si>
+    <t>2215. Find the Difference of Two Arrays</t>
   </si>
   <si>
     <t>Math</t>
@@ -557,6 +678,22 @@
     <t>31. Next Permutation</t>
   </si>
   <si>
+    <t>Plus one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def plusOne(self, digits):
+        n = len(digits)
+        for i in range(n-1, -1, -1):
+            if digits[i] &lt; 9:
+                digits[i] += 1
+                return digits
+            digits[i] = 0
+        return [1] + digits</t>
+  </si>
+  <si>
+    <t>66. Plus one</t>
+  </si>
+  <si>
     <t>Matrix</t>
   </si>
   <si>
@@ -606,6 +743,20 @@
     <t>179. Largest Number</t>
   </si>
   <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def relativeSortArray(self, arr1, arr2):
+        order = {val: i for i, val in enumerate(arr2)}
+        arr1.sort(key=lambda x: (order.get(x, float('inf')), x))
+        return arr1</t>
+  </si>
+  <si>
+    <t>1122. Relative Sort Array
+1636. Sort Array by Increasing Frequency</t>
+  </si>
+  <si>
     <t>loop</t>
   </si>
   <si>
@@ -623,6 +774,15 @@
   </si>
   <si>
     <t>1566. Detect Pattern of Length M Repeated K or More Times</t>
+  </si>
+  <si>
+    <t>list comprehension</t>
+  </si>
+  <si>
+    <t>even_numbers = [x for x in range(10) if x % 2 == 0]</t>
+  </si>
+  <si>
+    <t>even_odd_labels = ["even" if x % 2 == 0 else "odd" for x in range(10)]</t>
   </si>
   <si>
     <t>Heap</t>
@@ -895,10 +1055,48 @@
     <t>1823. Find the Winner of the Circular Game</t>
   </si>
   <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>subarray sum</t>
+    <t>To determine if an array was originally sorted in non-decreasing order and then rotated, you can use a simple algorithm that checks for the number of "drops" in the array. A "drop" occurs when a subsequent element is less than its predecessor. For a rotated sorted array, there should be at most one drop.</t>
+  </si>
+  <si>
+    <t>def checkRotatedSortedArray(nums):
+    drop_count = 0
+    n = len(nums)
+    for i in range(n):
+        if nums[i] &gt; nums[(i + 1) % n]:  # Compare current with the next (circular)
+            drop_count += 1
+            if drop_count &gt; 1:
+                return False
+    return True</t>
+  </si>
+  <si>
+    <t>1752. Check if Array Is Sorted and Rotated</t>
+  </si>
+  <si>
+    <t>loop over circular array wihout extending it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def numberOfAlternatingGroups(self, colors):
+        n = len(colors)
+        ans = 0
+        for i in range(n):
+            mid = colors[i]
+            left = colors[(i-1) % n]
+            right = colors[(i+1) % n]
+            if mid != left and mid != right:
+                ans += 1
+        return ans
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3206. Alternating Groups I
+</t>
+  </si>
+  <si>
+    <t>Prefix sum</t>
+  </si>
+  <si>
+    <t>Solution for Number of Continuous Subarrays that Sum to Target</t>
   </si>
   <si>
     <t xml:space="preserve">class Solution(object):
@@ -921,666 +1119,167 @@
     <t>560. Subarray Sum Equals K</t>
   </si>
   <si>
-    <t>Recursion</t>
-  </si>
-  <si>
-    <t>BST sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def rangeSumBST(self, root, low, high):
-        if root is None:
-            return 0
-        if low &lt;= root.val &lt;= high:
-            return root.val + self.rangeSumBST(root.left, low, high) + self.rangeSumBST(root.right, low, high)
-        elif root.val &gt; high:
-            return self.rangeSumBST(root.left, low, high)
-        else:
-            return self.rangeSumBST(root.right, low, high)</t>
-  </si>
-  <si>
-    <t>938. Range Sum of BST</t>
-  </si>
-  <si>
-    <t>Max depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def maxDepth(self, root):
-        if root is None:
-            return 0
-        return max(self.maxDepth(root.left), self.maxDepth(root.right)) + 1</t>
-  </si>
-  <si>
-    <t>104. Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>Is Mirror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        def isMirror(node1, node2):
-            if node1 is None and node2 is None:
-                return True
-            if node1 and node2 and node1.val == node2.val:
-                return isMirror(node1.left, node2.right) and isMirror(node1.right, node2.left)
+    <t>Leftmost Middle Index Search</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def findMiddleIndex(self, nums):
+        total_sum = sum(nums)
+        left_sum = 0
+        for i in range(len(nums)):
+            if left_sum == (total_sum - left_sum - nums[i]):
+                return i
+            left_sum += nums[i]
+        return -1</t>
+  </si>
+  <si>
+    <t>1991. Find the Middle Index in Array
+2219. Maximum Sum Score of Array</t>
+  </si>
+  <si>
+    <t>suffix sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    def leftRightDifference(nums):
+        n = len(nums)
+        left_sums= [0] * n
+        for i in range(1, n):
+            left_sums[i] = left_sums[i-1] + nums[i-1]
+        right_sums = [0] * n
+        for i in range(n-2, -1 , -1):
+            right_sums[i] = right_sums[i+1] + nums[i+1]
+        ans = [0] * n
+        for i in range(n):
+            ans[i] = abs(right_sums[i] - left_sums[i])
+        return ans</t>
+  </si>
+  <si>
+    <t>2574. Left and Right Sum Differences</t>
+  </si>
+  <si>
+    <t>Counting</t>
+  </si>
+  <si>
+    <t>Max Consecutive element</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def findMaxConsecutiveOnes(self, nums):
+        max_count = 0
+        curr_count = 0
+        for num in nums:
+            if num == 1:
+                curr_count += 1
             else:
-                return False</t>
-  </si>
-  <si>
-    <t>101. Symmetric Tree</t>
-  </si>
-  <si>
-    <t>Invert Binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def invertTree(self, root):
-        if not root:
-            return root
-        root.left, root.right = self.invertTree(root.right), self.invertTree(root.left)
-        return root</t>
-  </si>
-  <si>
-    <t>226. Invert Binary Tree</t>
-  </si>
-  <si>
-    <t>BFS</t>
-  </si>
-  <si>
-    <t>Search isn't the only thing BFS is good for. BFS is a traversal algorithm. That means it is an algorithm that visits every node in a tree-that is, it traverses or walks the tree.</t>
-  </si>
-  <si>
-    <t>queue = collections.deque()
-        queue.append((root, 0))
-        while queue:
-            node, accum = queue.popleft()
-            if node is not None:
-                if node.left is None and node.right is None:
-                    if accum + node.val == targetSum:
-                        return True
-                queue.append((node.left, accum+node.val))
-                queue.append((node.right, accum+node.val))</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BFS is suitable for finding the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shortest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> path in an unweighted graph, and in this case, each state of the lock can be considered a node in the graph.
+                max_count = max(max_count, curr_count)
+                curr_count = 0
+        max_count = max(max_count, curr_count)
+        return max_count</t>
+  </si>
+  <si>
+    <t>485. Max Consecutive Ones
+1869. Longer Contiguous Segments of Ones than Zeros</t>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def maxPower(self, s):
+        max_count = 0
+        curr_count = 1
+        for i in range(1, len(s)):
+            if s[i] == s[i-1]:
+                curr_count += 1
+            else:
+                max_count = max(max_count, curr_count)
+                curr_count = 1
+        max_count = max(max_count, curr_count)
+        return max_count</t>
+  </si>
+  <si>
+    <t>1446. Consecutive Characters
+674. Longest Continuous Increasing Subsequence
+2414. Length of the Longest Alphabetical Continuous Substring</t>
+  </si>
+  <si>
+    <t>Max Consecutive elements between A and B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def captureForts(self, forts):
+        max_zeros = 0
+        curr_zeros = 0
+        found_neg_one = False
+        found_one = False
+        for fort in forts:
+            if fort == 1:
+                if found_neg_one:
+                    max_zeros = max(max_zeros, curr_zeros)
+                curr_zeros = 0
+                found_neg_one = False
+                found_one = True
+            elif fort == -1:
+                if found_one:
+                    max_zeros = max(max_zeros, curr_zeros)
+                curr_zeros = 0
+                found_neg_one = True
+                found_one = False
+            elif fort == 0:
+                if found_one or found_neg_one:
+                    curr_zeros += 1
+        return max_zeros
 </t>
-    </r>
+  </si>
+  <si>
+    <t>2511. Maximum Enemy Forts That Can Be Captured</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>time series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def findPoisonedDuration(self, timeSeries, duration):
+        total_time = 0
+        curr_time = 0
+        for attack_time in timeSeries:
+            if attack_time &gt; curr_time:
+                total_time += duration
+            else:
+                total_time += (attack_time + duration) - curr_time
+            curr_time = attack_time + duration
+        return total_time        </t>
+  </si>
+  <si>
+    <t>495. Teemo Attacking
+1701. Average Waiting Time</t>
+  </si>
+  <si>
+    <t>Three-Way Partitionin</t>
   </si>
   <si>
     <t>class Solution(object):
-    def openLock(self, deadends, target):
-        deadset = set(deadends)
-        if "0000" in deadset:
-            return -1
-        queue = collections.deque([("0000", 0)])
-        seen = set("0000")
-        while queue:
-            curr_state, turn = queue.popleft()
-            if curr_state == target:
-                return turn
-            for i in range(4):
-                for direction in [-1, 1]:
-                    new_wheel = (int(curr_state[i]) + direction) % 10
-                    new_state = curr_state[:i] + str(new_wheel) + curr_state[i+1:]
-                    if new_state not in deadset and new_state not in seen:
-                        queue.append((new_state, turn+1))
-                        seen.add(new_state)
-        return -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">752. Open the Lock
-</t>
-  </si>
-  <si>
-    <t>DFS
-DFS cannot be used for finding the shortest path.</t>
-  </si>
-  <si>
-    <t>def rangeSumBST(self, root, low, high):
-        def dfs(node):
-            if node:
-                if low &lt;= node.val &lt;= high:
-                    ans[0] += node.val
-                    dfs(node.left)
-                    dfs(node.right)
-                elif node.val &lt; low:
-                    dfs(node.right)
-                else:
-                    dfs(node.left)
-        ans = [0]
-        dfs(root)
-        return ans[0]</t>
-  </si>
-  <si>
-    <t>Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def rangeSumBST(self, root, low, high):
-        stack = [root]
-        ans = 0
-        while stack:
-            node = stack.pop()
-            if node:
-                if low &lt;= node.val &lt;= high:
-                    ans += node.val
-                    stack.append(node.left)
-                    stack.append(node.right)
-                elif node.val &lt; low:
-                    stack.append(node.right)
-                else:
-                    stack.append(node.left)
-        return ans</t>
-  </si>
-  <si>
-    <t>Carry extra info (length)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def maxDepth(self, root):
-        stack = [(root, 1)]
-        depth = 0
-        while stack:
-            node, node_dep = stack.pop()
-            if node is not None:
-                depth = max(depth, node_dep)
-                stack.append((node.left, node_dep+1))
-                stack.append((node.right, node_dep+1))
-        return depth
-        </t>
-  </si>
-  <si>
-    <t>Carry extra info (mirror tree)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def isSymmetric(self, root):
-        stack = [(root, root)]
-        while stack:
-            node1, node2 = stack.pop()
-            if node1 is None and node2 is None:
-                continue
-            if node1 and node2 and node1.val == node2.val:
-                stack.append((node1.left, node2.right))
-                stack.append((node1.right, node2.left))
-            else:
-                return False
-        return True</t>
-  </si>
-  <si>
-    <t>101. Symmetric Tree
-100. Same Tree</t>
-  </si>
-  <si>
-    <t>Carry multiple fields (depth &amp; parent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def isCousins(self, root, x, y):
-        results = []
-        stack = [(root, 1, None)]
-        while stack:
-            node, depth, parent = stack.pop()
-            if node:
-                if node.val == x or node.val == y:
-                    results.append((depth, parent))
-                    if len(results) == 2:
-                        break
-                stack.append((node.left, depth+1, node))
-                stack.append((node.right, depth+1, node))
-        return results[0][0] == results[1][0] and results[0][1] != results[1][1]
-</t>
-  </si>
-  <si>
-    <t>993. Cousins in Binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def invertTree(self, root):
-        stack = [root]
-        while stack:
-            node = stack.pop()
-            if node:
-                node.left, node.right = node.right, node.left
-                stack.append(node.left)
-                stack.append(node.right)
-        return root</t>
-  </si>
-  <si>
-    <t>Parent node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Solution(object):
-    def delNodes(self, root, to_delete):
-        stack = [root]
-        to_delete_set = set(to_delete)
-        tree = []
-        while stack:
-            node = stack.pop()
-            if node:
-                if node.left:
-                    stack.append(node.left)
-                    if node.left.val in to_delete_set:
-                        node.left = None
-                if node.right:
-                    stack.append(node.right)
-                    if node.right.val in to_delete_set:
-                        node.right = None
-                if node.val in to_delete_set:
-                    if node.left is not None:
-                        tree.append(node.left)
-                    if node.right is not None:
-                        tree.append(node.right)
-        if root.val not in to_delete_set:
-            tree.append(root)
-        return tree
-</t>
-  </si>
-  <si>
-    <t>1110. Delete Nodes And Return Forest</t>
-  </si>
-  <si>
-    <t>Binary Search Tree</t>
-  </si>
-  <si>
-    <t>BST: left child &lt; node &lt; right child; all the numbers in the left child subtree are smaller than the node</t>
-  </si>
-  <si>
-    <t>If we can guarantee the height of our tree will be O(logn), the searching the tree will be O(logn)</t>
-  </si>
-  <si>
-    <t>Insertions are just a matter of searching for a place to insert the node and adding a pointer, just like a linked list. So insertions are O(logn) as well.</t>
-  </si>
-  <si>
-    <t>an inorder traversal handles the nodes in sorted order
-* cache prev value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def getMinimumDifference(self, root):
-        def inorder(node):
-            if node is None:
-                return None
-            inorder(node.left)
-            if prev[0] is not None:
-                min_diff[0] = min(min_diff[0], node.val - prev[0])
-            prev[0] = node.val
-            inorder(node.right)
-        prev = [None]
-        min_diff = [float('inf')]
-        inorder(root)
-        return min_diff[0]</t>
-  </si>
-  <si>
-    <t>530. Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
-    <t>Binary Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Solution(object):
-    def closestValue(self, root, target):
-        ans = root.val
-        min_diff = abs(root.val - target)
-        while root:
-            if abs(root.val - target) &lt; min_diff:
-                ans = root.val
-                min_diff = abs(root.val - target)
-            elif abs(root.val - target) == min_diff:
-                ans = min(root.val, ans)
-            if root.val &lt; target:
-                root = root.right
-            elif root.val &gt; target:
-                root = root.left
-            else:
-                return root.val
-        return ans
-        </t>
-  </si>
-  <si>
-    <t>270. Closest Binary Search Tree Value</t>
-  </si>
-  <si>
-    <t>Inorder Traversal</t>
-  </si>
-  <si>
-    <t>Minimum Distance Between BST Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def minDiffInBST(self, root):
-        def inorder(node):
-            if not node:
-                return 0
-            inorder(node.left)
-            if pre[0] is not None:
-                min_diff[0] = min(min_diff[0], node.val - pre[0])
-            pre[0] = node.val
-            inorder(node.right)
-        min_diff = [float('inf')]
-        pre = [None]
-        inorder(root)
-        return min_diff[0]
-</t>
-  </si>
-  <si>
-    <t>783. Minimum Distance Between BST Nodes</t>
-  </si>
-  <si>
-    <t>Postorder Traversal</t>
-  </si>
-  <si>
-    <t>In postorder traversal, you visit nodes in the following order:
-1.Left subtree
-2.Right subtree
-3.Root node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def postorder(self, root):
-        values = []
-        def postorder(node):
-            if not node:
-                return
-            for child in node.children:
-                postorder(child)
-            values.append(node.val)
-        postorder(root)
-        return values</t>
-  </si>
-  <si>
-    <t>590. N-ary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t>postorder valueSum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Solution(object):
-    def findTilt(self, root):
-        total_tilt = [0]
-        def valueSum(node):
-        # we will traverse the tree in the post-order DFS
-        # we visit a node's left and right subtrees before processing the value of the current node.
-            if not node:
-                return 0
-            left_sum = valueSum(node.left)
-            right_sum = valueSum(node.right)
-            tilt = abs(left_sum - right_sum)
-            total_tilt[0] += tilt
-            return left_sum + right_sum + node.val
-        valueSum(root)
-        return total_tilt[0]
-</t>
-  </si>
-  <si>
-    <t>563. Binary Tree Tilt</t>
-  </si>
-  <si>
-    <t>Character encoding</t>
-  </si>
-  <si>
-    <t>The letter a could be written in binary in many different ways</t>
-  </si>
-  <si>
-    <t>Unicode is the standard, but you need to use an encoding that follows the standard. The most popular encoding today is UTF-8.</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-tilt/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/diameter-of-binary-tree/solutions/1515564/python-easy-to-understand-solution-w-explanation/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/balanced-binary-tree/description/</t>
-  </si>
-  <si>
-    <t>sorted array to BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def sortedArrayToBSTw(self, nums):
-        """
-        :type nums: List[int]
-        :rtype: TreeNode
-        """
-        if not nums:
-            return None
-        mid_idx = len(nums) // 2
-        root = TreeNode(nums[mid_idx])
-        root.left = self.sortedArrayToBST(nums[:mid_idx])
-        root.right = self.sortedArrayToBST(nums[mid_idx+1:])
-        return root
-</t>
-  </si>
-  <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degree count: In graph theory, we call the number of connections a node has its "degree". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">class Solution(object):
-    def findCenter(self, edges):
-        graph = {}
-        for n1, n2 in edges:
-            graph[n1] = graph.get(n1, 0) + 1
-            graph[n2] = graph.get(n2, 0) + 1
-        for node, count in graph.items():
-            if count == len(edges):
-                return node
-</t>
-  </si>
-  <si>
-    <t>1791. Find Center of Star Graph</t>
-  </si>
-  <si>
-    <t>matrix - DFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def validPath(self, n, edges, source, destination):
-        # Store all edges according to nodes in 'graph'.
-        graph = collections.defaultdict(list)
-        for n1, n2 in edges:
-            graph[n1].append(n2)
-            graph[n2].append(n1)
-        stack = [source]
-        seen = {source}
-        while stack:
-            node = stack.pop()
-            if node == destination:
-                return True
-            for next_node in graph[node]:
-                if next_node not in seen:
-                    stack.append(next_node)
-                    seen.add(next_node)
-        return False
-</t>
-  </si>
-  <si>
-    <t>1971. Find if Path Exists in Graph
-2368. Reachable Nodes With Restrictions</t>
-  </si>
-  <si>
-    <t>Degree count: directional</t>
-  </si>
-  <si>
-    <t>trusted = {}
-trusting = {}</t>
-  </si>
-  <si>
-    <t>997. Find the Town Judge</t>
-  </si>
-  <si>
-    <t>Two pointers</t>
-  </si>
-  <si>
-    <t>while list1 and list2:
-            if list1.val &lt; list2.val:
-                dummy.next = list1
-                list1 = list1.next
-            else:
-                dummy.next = list2
-                list2 = list2.next
-            dummy = dummy.next</t>
-  </si>
-  <si>
-    <t>dummy head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        dummy = ListNode()
-        dummy.next = head
-        curr = dummy
-</t>
-  </si>
-  <si>
-    <t>Reverse list</t>
-  </si>
-  <si>
-    <t>def reverse_list(self, head):
-        prev = None
-        curr = head
-        while curr:
-            nxt = curr.next
-            curr.next = prev
-            prev = curr
-            curr = nxt
-        return prev</t>
-  </si>
-  <si>
-    <t>Second half start</t>
-  </si>
-  <si>
-    <t>def start_of_second_half(self, head):
-        fast = head
-        slow = head
-        while fast and fast.next:
-            fast = fast.next.next
-            slow = slow.next
-        return slow</t>
-  </si>
-  <si>
-    <t>Cycle Finding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def hasCycle(self, head):
-        """
-        :type head: ListNode
-        :rtype: bool
-        """
-        fast = head
-        slow = head
-        while fast and fast.next:
-            fast = fast.next.next
-            slow = slow.next
-            if fast == slow:
-                return True
-        return False</t>
-  </si>
-  <si>
-    <t>Remove node</t>
-  </si>
-  <si>
-    <t>def deleteDuplicates(self, head):
-        """
-        :type head: ListNode
-        :rtype: ListNode
-        """
-        curr = head
-        while curr and curr.next:
-            if curr.val == curr.next.val:
-                curr.next = curr.next.next
-            else:
-                curr = curr.next
-        return head</t>
-  </si>
-  <si>
-    <t>List intersection</t>
-  </si>
-  <si>
-    <t>def getIntersectionNode2(self, headA, headB):
-        pA = headA
-        pB = headB
-        # A and B will line up in the 2nd iteration: A+B &amp; B+A
-        while pA != pB:
-            pA = headB if pA is None else pA.next
-            pB = headA if pB is None else pB.next
-        return pA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A + B
-B + A
-</t>
-  </si>
-  <si>
-    <t>Dynamic Programing</t>
-  </si>
-  <si>
-    <t>We can make two important observations about this problem. First, we need to find the maximum or minimum of something. Second, we have to make decisions that might look different depending on decisions we made previously. These characteristics are typical of a dynamic programming problem.</t>
-  </si>
-  <si>
-    <t>121. Best Time to Buy and Sell Stock</t>
-  </si>
-  <si>
-    <t>Easy Review</t>
-  </si>
-  <si>
-    <t>1025. Divisor Game</t>
-  </si>
-  <si>
-    <t>Backtracking</t>
-  </si>
-  <si>
-    <t>Conceptually, one can imagine the procedure of backtracking as the tree traversal. Starting from the root node, one sets out to search for solutions that are located at the leaf nodes. Each intermediate node represents a partial candidate solution that could potentially lead us to a final valid solution. At each node, we would fan out to move one step further to the final solution, i.e. we iterate the child nodes of the current node. Once we can determine if a certain node cannot possibly lead to a valid solution, we abandon the current node and backtrack to its parent node to explore other possibilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backtracking reduced the number of steps taken to reach the final result. This is known as pruning the recursion tree because we don't take unnecessary paths.
-</t>
-  </si>
-  <si>
-    <t>all subsets - A common way to generate subsets is using backtracking.</t>
-  </si>
-  <si>
-    <t>def backtrack(nums, start, curr, subsets):
-            subsets.append(curr[:])
-            for i in range(start, len(nums)):
-                curr.append(nums[i])
-                backtrack(nums, i+1, curr, subsets)
-                curr.pop()
-        subsets = []
-        backtrack(nums, 0, [], subsets)</t>
-  </si>
-  <si>
-    <t>1863. Sum of All Subset XOR Totals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        def generate_subsets(nums, index, subset, subsets):
-            # base case: index reached end of nums
-            # add the current subset to subsets
-            if index == len(nums):
-                subsets.append(subset[:])
-                return
-            # generate subsets with nums[index]
-            subset.append(nums[index])
-            generate_subsets(nums, index+1, subset, subsets)
-            subset.pop()
-            # generate subsets without nums[index]
-            generate_subsets(nums, index+1, subset, subsets)
-        # generate all of the subsets
-        subsets = []
-        generate_subsets(nums, 0, [], subsets)</t>
+    def canThreePartsEqualSum(self, arr):
+        total = sum(arr)
+        if total % 3 != 0:
+            return False
+        target = total // 3
+        curr_sum = 0
+        count = 0
+        for num in arr:
+            curr_sum += num
+            if curr_sum == target:
+                count += 1
+                curr_sum = 0
+        return count &gt;= 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1013. Partition Array Into Three Parts With Equal Sum</t>
+  </si>
+  <si>
+    <t>Permutation</t>
   </si>
   <si>
     <t>next greater integer permutation</t>
@@ -1619,6 +1318,760 @@
     <t>556. Next Greater Element III</t>
   </si>
   <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>BST sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def rangeSumBST(self, root, low, high):
+        if root is None:
+            return 0
+        if low &lt;= root.val &lt;= high:
+            return root.val + self.rangeSumBST(root.left, low, high) + self.rangeSumBST(root.right, low, high)
+        elif root.val &gt; high:
+            return self.rangeSumBST(root.left, low, high)
+        else:
+            return self.rangeSumBST(root.right, low, high)</t>
+  </si>
+  <si>
+    <t>938. Range Sum of BST</t>
+  </si>
+  <si>
+    <t>Max depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def maxDepth(self, root):
+        if root is None:
+            return 0
+        return max(self.maxDepth(root.left), self.maxDepth(root.right)) + 1</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree
+110
+543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Is Mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        def isMirror(node1, node2):
+            if node1 is None and node2 is None:
+                return True
+            if node1 and node2 and node1.val == node2.val:
+                return isMirror(node1.left, node2.right) and isMirror(node1.right, node2.left)
+            else:
+                return False</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Is same tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def is_same_tree(self, t1, t2):
+        if not t1 and not t2:
+            return True
+        if not t1 or not t2:
+            return False
+        if t1.val != t2.val:
+            return False
+        return self.is_same_tree(t1.left, t2.left) and self.is_same_tree(t1.right, t2.right)</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def invertTree(self, root):
+        if not root:
+            return None
+        root.left, root.right = root.right, root.left
+        self.invertTree(root.left)
+        self.invertTree(root.right)
+        return root
+</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Search isn't the only thing BFS is good for. BFS is a traversal algorithm. That means it is an algorithm that visits every node in a tree-that is, it traverses or walks the tree.</t>
+  </si>
+  <si>
+    <t>queue = collections.deque()
+        queue.append((root, 0))
+        while queue:
+            node, accum = queue.popleft()
+            if node is not None:
+                if node.left is None and node.right is None:
+                    if accum + node.val == targetSum:
+                        return True
+                queue.append((node.left, accum+node.val))
+                queue.append((node.right, accum+node.val))</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BFS is suitable for finding the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shortest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> path in an unweighted graph, and in this case, each state of the lock can be considered a node in the graph.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>class Solution(object):
+    def openLock(self, deadends, target):
+        deadset = set(deadends)
+        if "0000" in deadset:
+            return -1
+        queue = collections.deque([("0000", 0)])
+        seen = set("0000")
+        while queue:
+            curr_state, turn = queue.popleft()
+            if curr_state == target:
+                return turn
+            for i in range(4):
+                for direction in [-1, 1]:
+                    new_wheel = (int(curr_state[i]) + direction) % 10
+                    new_state = curr_state[:i] + str(new_wheel) + curr_state[i+1:]
+                    if new_state not in deadset and new_state not in seen:
+                        queue.append((new_state, turn+1))
+                        seen.add(new_state)
+        return -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">752. Open the Lock
+</t>
+  </si>
+  <si>
+    <t>DFS
+DFS cannot be used for finding the shortest path.</t>
+  </si>
+  <si>
+    <t>def rangeSumBST(self, root, low, high):
+        def dfs(node):
+            if node:
+                if low &lt;= node.val &lt;= high:
+                    ans[0] += node.val
+                    dfs(node.left)
+                    dfs(node.right)
+                elif node.val &lt; low:
+                    dfs(node.right)
+                else:
+                    dfs(node.left)
+        ans = [0]
+        dfs(root)
+        return ans[0]</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def rangeSumBST(self, root, low, high):
+        stack = [root]
+        ans = 0
+        while stack:
+            node = stack.pop()
+            if node:
+                if low &lt;= node.val &lt;= high:
+                    ans += node.val
+                    stack.append(node.left)
+                    stack.append(node.right)
+                elif node.val &lt; low:
+                    stack.append(node.right)
+                else:
+                    stack.append(node.left)
+        return ans</t>
+  </si>
+  <si>
+    <t>Carry extra info (length)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def maxDepth(self, root):
+        stack = [(root, 1)]
+        depth = 0
+        while stack:
+            node, node_dep = stack.pop()
+            if node is not None:
+                depth = max(depth, node_dep)
+                stack.append((node.left, node_dep+1))
+                stack.append((node.right, node_dep+1))
+        return depth
+        </t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Carry extra info (mirror tree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def isSymmetric(self, root):
+        stack = [(root, root)]
+        while stack:
+            node1, node2 = stack.pop()
+            if node1 is None and node2 is None:
+                continue
+            if node1 and node2 and node1.val == node2.val:
+                stack.append((node1.left, node2.right))
+                stack.append((node1.right, node2.left))
+            else:
+                return False
+        return True</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree
+100. Same Tree</t>
+  </si>
+  <si>
+    <t>Carry extra info (col/row-wise order)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def verticalOrder1(self, root):
+        col_map = collections.defaultdict(list)
+        queue = collections.deque([(root, 0)])
+        while queue:
+            node, col = queue.popleft()
+            if node:
+                col_map[col].append(node.val)
+                queue.append((node.left, col-1))
+                queue.append((node.right, col+1))
+        result = []
+        for col in sorted(col_map.keys()):
+            result.append(col_map[col])
+        return result</t>
+  </si>
+  <si>
+    <t>314. Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Carry multiple fields (depth &amp; parent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def isCousins(self, root, x, y):
+        results = []
+        stack = [(root, 1, None)]
+        while stack:
+            node, depth, parent = stack.pop()
+            if node:
+                if node.val == x or node.val == y:
+                    results.append((depth, parent))
+                    if len(results) == 2:
+                        break
+                stack.append((node.left, depth+1, node))
+                stack.append((node.right, depth+1, node))
+        return results[0][0] == results[1][0] and results[0][1] != results[1][1]
+</t>
+  </si>
+  <si>
+    <t>993. Cousins in Binary Tree
+113.Path Sum II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def invertTree(self, root):
+        stack = [root]
+        while stack:
+            node = stack.pop()
+            if node:
+                node.left, node.right = node.right, node.left
+                stack.append(node.left)
+                stack.append(node.right)
+        return root</t>
+  </si>
+  <si>
+    <t>Parent node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def delNodes(self, root, to_delete):
+        stack = [root]
+        to_delete_set = set(to_delete)
+        tree = []
+        while stack:
+            node = stack.pop()
+            if node:
+                if node.left:
+                    stack.append(node.left)
+                    if node.left.val in to_delete_set:
+                        node.left = None
+                if node.right:
+                    stack.append(node.right)
+                    if node.right.val in to_delete_set:
+                        node.right = None
+                if node.val in to_delete_set:
+                    if node.left is not None:
+                        tree.append(node.left)
+                    if node.right is not None:
+                        tree.append(node.right)
+        if root.val not in to_delete_set:
+            tree.append(root)
+        return tree
+</t>
+  </si>
+  <si>
+    <t>1110. Delete Nodes And Return Forest</t>
+  </si>
+  <si>
+    <t>matrix - DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def validPath(self, n, edges, source, destination):
+        # Store all edges according to nodes in 'graph'.
+        graph = collections.defaultdict(list)
+        for n1, n2 in edges:
+            graph[n1].append(n2)
+            graph[n2].append(n1)
+        stack = [source]
+        seen = {source}
+        while stack:
+            node = stack.pop()
+            if node == destination:
+                return True
+            for next_node in graph[node]:
+                if next_node not in seen:
+                    stack.append(next_node)
+                    seen.add(next_node)
+        return False
+</t>
+  </si>
+  <si>
+    <t>1971. Find if Path Exists in Graph
+2368. Reachable Nodes With Restrictions</t>
+  </si>
+  <si>
+    <t>matrix - DFS - in batches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def orangesRotting(self, grid):
+        if not grid:
+            return -1
+        rows = len(grid)
+        cols = len(grid[0])
+        fresh_count = 0
+        rot_queue = collections.deque()
+        for i in range(rows):
+            for j in range(cols):
+                if grid[i][j] == 1:
+                    fresh_count += 1
+                elif grid[i][j] == 2:
+                    rot_queue.append((i, j))
+        min_passed = 0
+        directions = [(1, 0), (-1, 0), (0, 1), (0, -1)]
+        while rot_queue and fresh_count &gt; 0:
+            min_passed += 1
+            for _ in range(len(rot_queue)):
+                i, j = rot_queue.popleft()
+                for x, y in directions:
+                    i_new = i + x
+                    j_new = j + y
+                    if 0 &lt;= i_new &lt; rows and 0 &lt;= j_new &lt; cols and grid[i_new][j_new] == 1:
+                        grid[i_new][j_new] = 2
+                        fresh_count -= 1
+                        rot_queue.append((i_new, j_new))
+        if fresh_count == 0:
+            return min_passed
+        else:
+            return -1
+</t>
+  </si>
+  <si>
+    <t>994. Rotting Oranges</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>BST: left child &lt; node &lt; right child; all the numbers in the left child subtree are smaller than the node</t>
+  </si>
+  <si>
+    <t>If we can guarantee the height of our tree will be O(logn), the searching the tree will be O(logn)</t>
+  </si>
+  <si>
+    <t>Insertions are just a matter of searching for a place to insert the node and adding a pointer, just like a linked list. So insertions are O(logn) as well.</t>
+  </si>
+  <si>
+    <t>an inorder traversal handles the nodes in sorted order
+* cache prev value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def getMinimumDifference(self, root):
+        def inorder(node):
+            if node is None:
+                return None
+            inorder(node.left)
+            if prev[0] is not None:
+                min_diff[0] = min(min_diff[0], node.val - prev[0])
+            prev[0] = node.val
+            inorder(node.right)
+        prev = [None]
+        min_diff = [float('inf')]
+        inorder(root)
+        return min_diff[0]</t>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference in BST
+501. Find Mode in Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def closestValue(self, root, target):
+        ans = root.val
+        min_diff = abs(root.val - target)
+        while root:
+            if abs(root.val - target) &lt; min_diff:
+                ans = root.val
+                min_diff = abs(root.val - target)
+            elif abs(root.val - target) == min_diff:
+                ans = min(root.val, ans)
+            if root.val &lt; target:
+                root = root.right
+            elif root.val &gt; target:
+                root = root.left
+            else:
+                return root.val
+        return ans
+        </t>
+  </si>
+  <si>
+    <t>270. Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def minDiffInBST(self, root):
+        def inorder(node):
+            if not node:
+                return 0
+            inorder(node.left)
+            if pre[0] is not None:
+                min_diff[0] = min(min_diff[0], node.val - pre[0])
+            pre[0] = node.val
+            inorder(node.right)
+        min_diff = [float('inf')]
+        pre = [None]
+        inorder(root)
+        return min_diff[0]
+</t>
+  </si>
+  <si>
+    <t>783. Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>Postorder Traversal</t>
+  </si>
+  <si>
+    <t>In postorder traversal, you visit nodes in the following order:
+1.Left subtree
+2.Right subtree
+3.Root node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def postorder(self, root):
+        values = []
+        def postorder(node):
+            if not node:
+                return
+            for child in node.children:
+                postorder(child)
+            values.append(node.val)
+        postorder(root)
+        return values</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>postorder valueSum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def findTilt(self, root):
+        total_tilt = [0]
+        def valueSum(node):
+        # we will traverse the tree in the post-order DFS
+        # we visit a node's left and right subtrees before processing the value of the current node.
+            if not node:
+                return 0
+            left_sum = valueSum(node.left)
+            right_sum = valueSum(node.right)
+            tilt = abs(left_sum - right_sum)
+            total_tilt[0] += tilt
+            return left_sum + right_sum + node.val
+        valueSum(root)
+        return total_tilt[0]
+</t>
+  </si>
+  <si>
+    <t>563. Binary Tree Tilt</t>
+  </si>
+  <si>
+    <t>Character encoding</t>
+  </si>
+  <si>
+    <t>The letter a could be written in binary in many different ways</t>
+  </si>
+  <si>
+    <t>Unicode is the standard, but you need to use an encoding that follows the standard. The most popular encoding today is UTF-8.</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-tilt/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diameter-of-binary-tree/solutions/1515564/python-easy-to-understand-solution-w-explanation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>sorted array to BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def sortedArrayToBSTw(self, nums):
+        """
+        :type nums: List[int]
+        :rtype: TreeNode
+        """
+        if not nums:
+            return None
+        mid_idx = len(nums) // 2
+        root = TreeNode(nums[mid_idx])
+        root.left = self.sortedArrayToBST(nums[:mid_idx])
+        root.right = self.sortedArrayToBST(nums[mid_idx+1:])
+        return root
+</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degree count: In graph theory, we call the number of connections a node has its "degree". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution(object):
+    def findCenter(self, edges):
+        graph = {}
+        for n1, n2 in edges:
+            graph[n1] = graph.get(n1, 0) + 1
+            graph[n2] = graph.get(n2, 0) + 1
+        for node, count in graph.items():
+            if count == len(edges):
+                return node
+</t>
+  </si>
+  <si>
+    <t>1791. Find Center of Star Graph</t>
+  </si>
+  <si>
+    <t>Degree count: directional</t>
+  </si>
+  <si>
+    <t>trusted = {}
+trusting = {}</t>
+  </si>
+  <si>
+    <t>997. Find the Town Judge</t>
+  </si>
+  <si>
+    <t>Two pointers</t>
+  </si>
+  <si>
+    <t>while list1 and list2:
+            if list1.val &lt; list2.val:
+                dummy.next = list1
+                list1 = list1.next
+            else:
+                dummy.next = list2
+                list2 = list2.next
+            dummy = dummy.next</t>
+  </si>
+  <si>
+    <t>dummy head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dummy = ListNode()
+        dummy.next = head
+        curr = dummy
+</t>
+  </si>
+  <si>
+    <t>Reverse list</t>
+  </si>
+  <si>
+    <t>def reverse_list(self, head):
+        prev = None
+        curr = head
+        while curr:
+            nxt = curr.next
+            curr.next = prev
+            prev = curr
+            curr = nxt
+        return prev</t>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>def start_of_second_half(self, head):
+        fast = head
+        slow = head
+        while fast and fast.next:
+            fast = fast.next.next
+            slow = slow.next
+        return slow</t>
+  </si>
+  <si>
+    <t>Cycle Finding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def hasCycle(self, head):
+        """
+        :type head: ListNode
+        :rtype: bool
+        """
+        fast = head
+        slow = head
+        while fast and fast.next:
+            fast = fast.next.next
+            slow = slow.next
+            if fast == slow:
+                return True
+        return False</t>
+  </si>
+  <si>
+    <t>Remove node</t>
+  </si>
+  <si>
+    <t>def deleteDuplicates(self, head):
+        """
+        :type head: ListNode
+        :rtype: ListNode
+        """
+        curr = head
+        while curr and curr.next:
+            if curr.val == curr.next.val:
+                curr.next = curr.next.next
+            else:
+                curr = curr.next
+        return head</t>
+  </si>
+  <si>
+    <t>List intersection</t>
+  </si>
+  <si>
+    <t>def getIntersectionNode2(self, headA, headB):
+        pA = headA
+        pB = headB
+        # A and B will line up in the 2nd iteration: A+B &amp; B+A
+        while pA != pB:
+            pA = headB if pA is None else pA.next
+            pB = headA if pB is None else pB.next
+        return pA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A + B
+B + A
+</t>
+  </si>
+  <si>
+    <t>Dynamic Programing</t>
+  </si>
+  <si>
+    <t>We can make two important observations about this problem. First, we need to find the maximum or minimum of something. Second, we have to make decisions that might look different depending on decisions we made previously. These characteristics are typical of a dynamic programming problem.</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Easy Review</t>
+  </si>
+  <si>
+    <t>1025. Divisor Game</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Conceptually, one can imagine the procedure of backtracking as the tree traversal. Starting from the root node, one sets out to search for solutions that are located at the leaf nodes. Each intermediate node represents a partial candidate solution that could potentially lead us to a final valid solution. At each node, we would fan out to move one step further to the final solution, i.e. we iterate the child nodes of the current node. Once we can determine if a certain node cannot possibly lead to a valid solution, we abandon the current node and backtrack to its parent node to explore other possibilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backtracking reduced the number of steps taken to reach the final result. This is known as pruning the recursion tree because we don't take unnecessary paths.
+</t>
+  </si>
+  <si>
+    <t>To generate all subsets of a given set using backtracking, you can follow a recursive approach. The idea is to build the subsets incrementally by deciding for each element whether to include it in the current subset or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def backtrack(start, path, result, nums):
+    # Add the current subset (path) to the result
+    result.append(path[:])
+    # Iterate over the remaining elements to form new subsets
+    for i in range(start, len(nums)):
+        # Include the current element in the subset
+        path.append(nums[i])
+        # Move on to the next element
+        backtrack(i + 1, path, result, nums)
+        # Backtrack to explore other subsets
+        path.pop()
+def subsets(nums):
+    result = []
+    backtrack(0, [], result, nums)
+    return result
+</t>
+  </si>
+  <si>
+    <t>1863. Sum of All Subset XOR Totals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        def generate_subsets(nums, index, subset, subsets):
+            # base case: index reached end of nums
+            # add the current subset to subsets
+            if index == len(nums):
+                subsets.append(subset[:])
+                return
+            # generate subsets with nums[index]
+            subset.append(nums[index])
+            generate_subsets(nums, index+1, subset, subsets)
+            subset.pop()
+            # generate subsets without nums[index]
+            generate_subsets(nums, index+1, subset, subsets)
+        # generate all of the subsets
+        subsets = []
+        generate_subsets(nums, 0, [], subsets)</t>
+  </si>
+  <si>
     <t>write a python solution for the question below:
 Given a fixed-length integer array arr, duplicate each occurrence of zero, shifting the remaining elements to the right.
 Note that elements beyond the length of the original array are not written. Do the above modifications to the input array in place and do not return anything.
@@ -1626,6 +2079,217 @@
 Input: arr = [1,0,2,3,0,4,5,0]
 Output: [1,0,0,2,3,0,0,4]
 Explanation: After calling your function, the input array is modified to: [1,0,0,2,3,0,0,4]</t>
+  </si>
+  <si>
+    <t>Nth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Write your MySQL query statement below
+select (
+select distinct salary 
+from Employee
+order by salary desc
+limit 1 offset 1) as SecondHighestSalary </t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t># Write your MySQL query statement below
+SELECT
+  S1.score,
+  (
+    SELECT
+      COUNT(DISTINCT S2.score)
+    FROM
+      Scores S2
+    WHERE
+      S2.score &gt;= S1.score
+  ) AS 'rank'
+FROM
+  Scores S1
+ORDER BY
+  S1.score DESC;</t>
+  </si>
+  <si>
+    <t>highest salary - IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Write your MySQL query statement below
+SELECT 
+    d.name AS Department, 
+    e.name AS Employee, 
+    e.salary AS Salary
+FROM 
+    Employee e
+JOIN 
+    Department d ON e.departmentId = d.id
+WHERE
+    (e.departmentId, salary) IN
+    (SELECT departmentId, MAX(salary) as max_salary 
+     FROM Employee
+     GROUP BY departmentId) 
+</t>
+  </si>
+  <si>
+    <t>first order - IN</t>
+  </si>
+  <si>
+    <t>Select 
+    round(avg(order_date = customer_pref_delivery_date)*100, 2) as immediate_percentage
+from Delivery
+where (customer_id, order_date) in (
+  Select customer_id, min(order_date) 
+  from Delivery
+  group by customer_id
+);</t>
+  </si>
+  <si>
+    <t>1174. Immediate Food Delivery II</t>
+  </si>
+  <si>
+    <t>Delete Duplicate</t>
+  </si>
+  <si>
+    <t># Write your MySQL query statement below
+DELETE p1 
+FROM person p1,
+    person p2
+WHERE
+    p1.Email = p2.Email AND p1.Id &gt; p2.Id</t>
+  </si>
+  <si>
+    <t>Join on date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Write your MySQL query statement below
+select 
+nxt.id 
+FROM 
+    Weather prev
+JOIN 
+    Weather nxt
+ON 
+ DATEDIFF(nxt.recordDate, prev.recordDate) = 1
+ where nxt.temperature  &gt; prev.temperature </t>
+  </si>
+  <si>
+    <t>Case...When</t>
+  </si>
+  <si>
+    <t># Write your MySQL query statement below
+SELECT 
+    CASE 
+        WHEN id = (SELECT MAX(id) FROM seat) AND id % 2 = 1
+            THEN id 
+        WHEN id % 2 = 1
+            THEN id + 1
+        ELSE id - 1
+    END AS id,
+    student
+FROM seat
+ORDER BY id</t>
+  </si>
+  <si>
+    <t>626. Exchange Seats</t>
+  </si>
+  <si>
+    <t>Having</t>
+  </si>
+  <si>
+    <t># Write your MySQL query statement below
+select customer_id
+from customer c
+group by customer_id
+having count(distinct product_key)=(select count(*) from product)</t>
+  </si>
+  <si>
+    <t>1045. Customers Who Bought All Products</t>
+  </si>
+  <si>
+    <t>aggregation stats</t>
+  </si>
+  <si>
+    <t>sum(...='approved)
+sum(case when state='approved' then amount else 0 end)</t>
+  </si>
+  <si>
+    <t>select
+date_format(trans_date, '%Y-%m') as month,
+country,
+count(*) as trans_count,
+sum(state='approved') as approved_count ,
+sum(amount ) as trans_total_amount ,
+sum(case when state  = 'approved' then amount else 0 end) as approved_total_amount 
+from Transactions 
+group by month, country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round(sum(case when action = 'confirmed' then 1 else 0 end) / count(s.user_id), 2) </t>
+  </si>
+  <si>
+    <t># Write your MySQL query statement below
+SELECT 
+s.user_id,
+round(sum(case when action = 'confirmed' then 1 else 0 end) / count(s.user_id), 2) as confirmation_rate
+#round(avg(action = 'confirmed'), 2) as confirmation_rate
+FROM 
+    Signups s
+LEFT JOIN 
+    Confirmations c ON s.user_id = c.user_id
+group by s.user_id
+;</t>
+  </si>
+  <si>
+    <t>1934. Confirmation Rate</t>
+  </si>
+  <si>
+    <t>prefix sum</t>
+  </si>
+  <si>
+    <t>sum(...) over (order by ...) as ...</t>
+  </si>
+  <si>
+    <t>SELECT person_name
+FROM (
+SELECT 
+        person_name, 
+        weight, 
+        SUM(weight) OVER (ORDER BY turn) AS total_weight
+    FROM Queue
+) as subquery
+where total_weight &lt;= 1000
+order by total_weight desc
+limit 1;</t>
+  </si>
+  <si>
+    <t>1204. Last Person to Fit in the Bus</t>
+  </si>
+  <si>
+    <t>self join</t>
+  </si>
+  <si>
+    <t>conditional self join</t>
+  </si>
+  <si>
+    <t># Write your MySQL query statement below
+select a.machine_id,
+    round(avg(b.timestamp - a.timestamp), 3) as processing_time 
+FROM Activity a 
+join
+     Activity b
+on 
+    a.machine_id = b.machine_id
+AND 
+    a.process_id = b.process_id
+where 
+    a.activity_type = 'start'
+AND 
+    b.activity_type = 'end'
+group by a.machine_id</t>
+  </si>
+  <si>
+    <t>1661. Average Time of Process per Machine</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2311,10 +2975,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2325,6 +2992,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2645,10 +3315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E103"/>
+  <dimension ref="A2:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A53" sqref="$A50:$XFD53"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2669,7 +3339,7 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -2688,7 +3358,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2704,535 +3374,738 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="2:4">
+    <row r="14" ht="140" spans="2:4">
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" ht="56" spans="2:4">
-      <c r="B15" s="1" t="s">
-        <v>14</v>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="182" spans="2:4">
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="238" spans="2:4">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="42" spans="3:4">
       <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="27" ht="98" spans="1:4">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="27" ht="224" spans="1:4">
       <c r="A27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" ht="238" spans="2:5">
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" ht="308" spans="2:4">
-      <c r="B29" s="1" t="s">
+    <row r="28" ht="98" spans="2:4">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" ht="140" spans="2:4">
-      <c r="B30" t="s">
+    <row r="29" ht="238" spans="2:5">
+      <c r="B29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" ht="252" spans="2:4">
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" ht="308" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" ht="140" spans="2:4">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" ht="154" spans="2:4">
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" ht="336" spans="2:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" ht="252" spans="2:4">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" ht="154" spans="2:4">
       <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" ht="294" spans="2:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" ht="336" spans="2:4">
       <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" ht="70" spans="2:4">
-      <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" ht="238" spans="1:4">
-      <c r="A41" s="10" t="s">
+      <c r="C35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D35" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="36" ht="294" spans="2:4">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" ht="154" spans="2:4">
-      <c r="B42" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="38" ht="70" spans="2:4">
+      <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44" t="s">
+    <row r="42" ht="238" spans="1:4">
+      <c r="A42" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D44" t="s">
+      <c r="B42" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" ht="154" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="2" t="s">
+    </row>
+    <row r="43" ht="154" spans="2:4">
+      <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" ht="182" spans="1:4">
-      <c r="A48" s="4"/>
-      <c r="B48" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="2" t="s">
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" ht="140" spans="1:4">
+    <row r="48" ht="154" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" ht="182" spans="1:4">
       <c r="A49" s="4"/>
-      <c r="B49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s">
+      <c r="B49" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" ht="70" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="C49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" ht="28" spans="1:2">
+    <row r="50" ht="140" spans="1:4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" ht="98" spans="1:4">
       <c r="A53" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" ht="28" spans="1:4">
       <c r="A54" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" ht="364" spans="2:4">
-      <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" ht="126" spans="2:4">
+      <c r="B55" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" ht="28" spans="1:2">
-      <c r="A58" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" ht="70" spans="2:3">
-      <c r="B59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" ht="308" spans="2:4">
-      <c r="B60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" ht="28" spans="1:2">
-      <c r="A62" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="57" ht="364" spans="2:4">
+      <c r="B57" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="63" ht="56" spans="2:4">
-      <c r="B63" t="s">
+      <c r="C57" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="D57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" ht="140" spans="2:4">
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" ht="28" spans="1:2">
+      <c r="A61" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" ht="70" spans="2:3">
+      <c r="B62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" ht="308" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C63" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="67" ht="364" spans="1:3">
-      <c r="A67" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" ht="84" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" ht="28" spans="1:2">
+      <c r="A66" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" ht="56" spans="2:4">
+      <c r="B67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" ht="196" spans="2:3">
-      <c r="B69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" ht="294" spans="2:4">
-      <c r="B70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" ht="210" spans="2:4">
-      <c r="B71" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" ht="210" spans="2:4">
-      <c r="B72" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="2"/>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" ht="364" spans="1:3">
+      <c r="A72" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" ht="196" spans="2:3">
       <c r="B74" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" ht="28" spans="2:2">
-      <c r="B75" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
+        <v>121</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" ht="294" spans="2:4">
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" ht="210" spans="2:4">
       <c r="B76" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" ht="154" spans="2:3">
-      <c r="B80" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" ht="224" spans="2:3">
-      <c r="B82" t="s">
-        <v>119</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" ht="42" spans="3:4">
-      <c r="C83" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D83" s="15">
+        <v>126</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" ht="210" spans="2:4">
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" ht="28" spans="2:2">
+      <c r="B80" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" ht="154" spans="2:3">
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" ht="224" spans="2:3">
+      <c r="B87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" ht="42" spans="3:4">
+      <c r="C88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="16">
         <v>141071</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
-      <c r="B85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" ht="280" spans="3:3">
-      <c r="C88" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" ht="56" spans="2:3">
+    <row r="90" spans="2:4">
       <c r="B90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" ht="56" spans="2:3">
-      <c r="B93" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" ht="42" spans="3:3">
-      <c r="C94" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" ht="84" spans="2:3">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" ht="280" spans="3:3">
+      <c r="C93" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" ht="56" spans="2:3">
       <c r="B95" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" ht="28" spans="2:3">
-      <c r="B96" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" ht="28" spans="1:2">
-      <c r="A98" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" ht="140" spans="2:4">
-      <c r="B99" t="s">
-        <v>139</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" ht="56" spans="2:3">
+      <c r="B98" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" ht="42" spans="3:3">
       <c r="C99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D99" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" ht="252" spans="1:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" ht="107" customHeight="1" spans="2:3">
+      <c r="B100" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" ht="28" spans="2:3">
+      <c r="B101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" ht="28" spans="1:2">
       <c r="A103" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B103" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103" t="s">
-        <v>145</v>
+        <v>160</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" ht="140" spans="2:4">
+      <c r="B104" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" ht="168" spans="2:4">
+      <c r="B105" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" ht="182" spans="2:4">
+      <c r="B106" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" ht="252" spans="1:4">
+      <c r="A108" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" ht="140" spans="2:4">
+      <c r="B109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" ht="238" spans="2:4">
+      <c r="B110" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" ht="168" spans="1:4">
+      <c r="A111" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" ht="182" spans="2:4">
+      <c r="B112" s="17"/>
+      <c r="C112" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" ht="392" spans="2:4">
+      <c r="B113" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" ht="210" spans="1:4">
+      <c r="A114" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" ht="224" spans="2:4">
+      <c r="B115" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" ht="409.5" spans="1:4">
+      <c r="A117" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" t="s">
+        <v>198</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D117" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B111:B112"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B68" r:id="rId1" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/"/>
+    <hyperlink ref="B73" r:id="rId1" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/editorial/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3242,10 +4115,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="$A17:$XFD17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3258,343 +4131,417 @@
   <sheetData>
     <row r="1" ht="140" spans="2:5">
       <c r="B1" s="4" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>148</v>
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" ht="70" spans="2:5">
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
+        <v>205</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" ht="98" spans="2:5">
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>208</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" ht="84" spans="2:5">
-      <c r="B4" s="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" ht="112" spans="2:4">
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" ht="168" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" ht="364" spans="1:5">
+        <v>211</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" ht="154" spans="2:5">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" ht="168" spans="1:4">
       <c r="A6" s="5"/>
-      <c r="C6" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" ht="210" spans="1:4">
+      <c r="B6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" ht="364" spans="1:5">
       <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" ht="210" spans="1:5">
+      <c r="C7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" ht="210" spans="1:4">
       <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" ht="154" spans="1:5">
+        <v>201</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" ht="210" spans="1:5">
       <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>170</v>
+        <v>224</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" ht="168" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" ht="154" spans="1:5">
       <c r="A10" s="5"/>
       <c r="C10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" ht="210" spans="1:5">
+        <v>226</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" ht="168" spans="1:5">
       <c r="A11" s="5"/>
       <c r="C11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" ht="126" spans="1:5">
+        <v>229</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" ht="224" spans="1:5">
       <c r="A12" s="5"/>
       <c r="C12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" ht="409.5" spans="1:5">
+        <v>232</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" ht="210" spans="1:5">
       <c r="A13" s="5"/>
       <c r="C13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" ht="28" spans="1:3">
+        <v>235</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" ht="126" spans="1:5">
       <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" ht="409.5" spans="1:5">
       <c r="A15" s="5"/>
-      <c r="C15" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" ht="42" spans="1:3">
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" ht="266" spans="1:5">
       <c r="A16" s="5"/>
-      <c r="C16" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" ht="210" spans="1:5">
+      <c r="C16" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" ht="409.5" spans="1:5">
       <c r="A17" s="5"/>
-      <c r="C17" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>186</v>
+      <c r="C17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" ht="308" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="5"/>
-      <c r="C18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" ht="238" spans="1:5">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" ht="168" spans="1:5">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" ht="28" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" ht="224" spans="3:5">
-      <c r="C21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" ht="28" spans="2:3">
-      <c r="B24" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
+        <v>248</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="C21" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" ht="42" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="C22" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" ht="210" spans="1:5">
+      <c r="A23" s="5"/>
+      <c r="C23" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" ht="308" spans="1:5">
+      <c r="A24" s="5"/>
+      <c r="C24" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" ht="238" spans="1:5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="C25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" ht="182" spans="2:3">
-      <c r="B36" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" ht="154" spans="1:4">
-      <c r="A39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" ht="266" spans="2:4">
-      <c r="B40" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" ht="378" spans="2:4">
-      <c r="B41" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" ht="28" spans="2:4">
-      <c r="B42" s="3" t="s">
-        <v>218</v>
+        <v>259</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" ht="168" spans="1:5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" ht="224" spans="3:5">
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" ht="28" spans="2:3">
+      <c r="B30" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" ht="182" spans="2:3">
+      <c r="B42" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="4"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="4"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="53" ht="154" spans="1:4">
+      <c r="A53" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" ht="378" spans="2:4">
+      <c r="B55" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C55" s="1" t="s">
         <v>220</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" ht="28" spans="2:4">
+      <c r="B56" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D56" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A6:A26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C31" r:id="rId1" display="https://leetcode.com/problems/binary-tree-tilt/"/>
-    <hyperlink ref="C32" r:id="rId2" display="https://leetcode.com/problems/diameter-of-binary-tree/solutions/1515564/python-easy-to-understand-solution-w-explanation/"/>
-    <hyperlink ref="C33" r:id="rId3" display="https://leetcode.com/problems/balanced-binary-tree/description/"/>
+    <hyperlink ref="C37" r:id="rId1" display="https://leetcode.com/problems/binary-tree-tilt/"/>
+    <hyperlink ref="C38" r:id="rId2" display="https://leetcode.com/problems/diameter-of-binary-tree/solutions/1515564/python-easy-to-understand-solution-w-explanation/"/>
+    <hyperlink ref="C39" r:id="rId3" display="https://leetcode.com/problems/balanced-binary-tree/description/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3606,73 +4553,73 @@
   <sheetPr/>
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="40.359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="112" spans="2:3">
       <c r="B2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>285</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="4" ht="56" spans="2:3">
       <c r="B4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>287</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="6" ht="126" spans="2:3">
       <c r="B6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>289</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="8" ht="98" spans="2:3">
       <c r="B8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>228</v>
+        <v>291</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="10" ht="182" spans="2:3">
       <c r="B10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>230</v>
+        <v>293</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12" ht="182" spans="2:3">
       <c r="B12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>232</v>
+        <v>295</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="14" ht="154" spans="2:4">
       <c r="B14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>235</v>
+        <v>297</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3698,21 +4645,21 @@
   <sheetData>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>300</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3724,10 +4671,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:D13"/>
+  <dimension ref="A5:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3739,42 +4686,31 @@
   <sheetData>
     <row r="5" ht="112" spans="1:2">
       <c r="A5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>305</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="6" ht="56" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" ht="140" spans="2:4">
-      <c r="B9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>245</v>
+      <c r="B6" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" ht="266" spans="2:4">
+      <c r="B9" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" ht="252" spans="3:3">
-      <c r="C10" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" ht="409.5" spans="2:4">
-      <c r="B13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13" t="s">
-        <v>250</v>
+      <c r="C10" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3798,8 +4734,154 @@
   </cols>
   <sheetData>
     <row r="2" ht="238" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>251</v>
+      <c r="B2" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="15.6875" customWidth="1"/>
+    <col min="3" max="3" width="72.5" customWidth="1"/>
+    <col min="4" max="4" width="53.6484375" customWidth="1"/>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" ht="84" spans="3:4">
+      <c r="C4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" ht="210" spans="3:4">
+      <c r="C5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" ht="210" spans="3:4">
+      <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" ht="126" spans="3:5">
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" ht="84" spans="3:4">
+      <c r="C11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" ht="140" spans="3:4">
+      <c r="C14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" ht="168" spans="2:5">
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" ht="70" spans="2:5">
+      <c r="B20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" ht="140" spans="2:4">
+      <c r="B23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" ht="168" spans="3:5">
+      <c r="C24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" ht="154" spans="2:5">
+      <c r="B26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" ht="210" spans="2:5">
+      <c r="B29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E29" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/algos.xlsx
+++ b/algos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14320" activeTab="6"/>
+    <workbookView windowWidth="26440" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Array_&amp;_String" sheetId="7" r:id="rId1"/>
@@ -564,7 +564,8 @@
 744. Find Smallest Letter Greater Than Target
 875. Koko Eating Bananas
 1608. Special Array With X Elements Greater Than or Equal X
-1150. Check If a Number Is Majority Element in a Sorted Array</t>
+1150. Check If a Number Is Majority Element in a Sorted Array
+528. Random Pick with Weight</t>
   </si>
   <si>
     <t>find the position to insert a new element or identify a unique element. 
@@ -3317,8 +3318,8 @@
   <sheetPr/>
   <dimension ref="A2:E117"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -4749,7 +4750,7 @@
   <sheetPr/>
   <dimension ref="B4:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>

--- a/algos.xlsx
+++ b/algos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26440" windowHeight="15420"/>
+    <workbookView windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Array_&amp;_String" sheetId="7" r:id="rId1"/>
@@ -183,6 +183,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">finding </t>
     </r>
     <r>
@@ -1416,6 +1423,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">BFS is suitable for finding the </t>
     </r>
     <r>
@@ -2298,10 +2312,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2344,38 +2358,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2397,11 +2380,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2413,15 +2403,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2436,7 +2428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2450,7 +2442,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2458,14 +2457,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2501,7 +2515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2513,19 +2527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2543,19 +2545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2573,7 +2575,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,7 +2623,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2603,13 +2671,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2621,67 +2695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2692,6 +2706,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2706,6 +2744,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2728,45 +2792,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2781,158 +2806,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2942,22 +2956,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2983,9 +2991,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1">
@@ -3318,13 +3323,13 @@
   <sheetPr/>
   <dimension ref="A2:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B87" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="74.6875" customWidth="1"/>
     <col min="3" max="3" width="44.4375" customWidth="1"/>
     <col min="4" max="4" width="46.1875" customWidth="1"/>
@@ -3332,15 +3337,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="126" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -3348,7 +3353,7 @@
       </c>
     </row>
     <row r="6" ht="42" spans="2:4">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -3359,7 +3364,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3375,7 +3380,7 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3386,12 +3391,12 @@
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" ht="56" spans="2:4">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
@@ -3405,7 +3410,7 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3424,15 +3429,15 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="2"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="27" ht="224" spans="1:4">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -3446,38 +3451,38 @@
       </c>
     </row>
     <row r="28" ht="98" spans="2:4">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" ht="238" spans="2:5">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" ht="308" spans="2:4">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3485,10 +3490,10 @@
       <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3507,7 +3512,7 @@
       <c r="B34" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D34" t="s">
@@ -3518,7 +3523,7 @@
       <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D35" t="s">
@@ -3529,15 +3534,15 @@
       <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" ht="70" spans="2:4">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D38" t="s">
@@ -3545,27 +3550,27 @@
       </c>
     </row>
     <row r="42" ht="238" spans="1:4">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" ht="154" spans="2:4">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3578,10 +3583,10 @@
       </c>
     </row>
     <row r="48" ht="154" spans="1:4">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3592,8 +3597,8 @@
       </c>
     </row>
     <row r="49" ht="182" spans="1:4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3604,8 +3609,8 @@
       </c>
     </row>
     <row r="50" ht="140" spans="1:4">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3625,10 +3630,10 @@
       </c>
     </row>
     <row r="53" ht="98" spans="1:4">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3639,10 +3644,10 @@
       </c>
     </row>
     <row r="54" ht="28" spans="1:4">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3653,7 +3658,7 @@
       </c>
     </row>
     <row r="55" ht="126" spans="2:4">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -3664,7 +3669,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B56" t="s">
@@ -3694,7 +3699,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B59" t="s">
@@ -3705,26 +3710,26 @@
       </c>
     </row>
     <row r="61" ht="28" spans="1:2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="62" ht="70" spans="2:3">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="63" ht="308" spans="2:4">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D63" t="s">
@@ -3732,10 +3737,10 @@
       </c>
     </row>
     <row r="64" ht="84" spans="2:4">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3743,10 +3748,10 @@
       </c>
     </row>
     <row r="66" ht="28" spans="1:2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3767,7 +3772,7 @@
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="2"/>
+      <c r="B69" s="1"/>
       <c r="C69" t="s">
         <v>115</v>
       </c>
@@ -3778,10 +3783,10 @@
       </c>
     </row>
     <row r="72" ht="364" spans="1:3">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3789,7 +3794,7 @@
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3797,7 +3802,7 @@
       <c r="B74" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3835,7 +3840,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B79" t="s">
@@ -3846,7 +3851,7 @@
       </c>
     </row>
     <row r="80" ht="28" spans="2:2">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3870,7 +3875,7 @@
       <c r="B85" t="s">
         <v>140</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3878,15 +3883,15 @@
       <c r="B87" t="s">
         <v>142</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="88" ht="42" spans="3:4">
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="13">
         <v>141071</v>
       </c>
     </row>
@@ -3910,7 +3915,7 @@
       </c>
     </row>
     <row r="93" ht="280" spans="3:3">
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3918,7 +3923,7 @@
       <c r="B95" t="s">
         <v>151</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3926,12 +3931,12 @@
       <c r="B98" t="s">
         <v>153</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99" ht="42" spans="3:3">
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3939,7 +3944,7 @@
       <c r="B100" t="s">
         <v>156</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3947,12 +3952,12 @@
       <c r="B101" t="s">
         <v>158</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="103" ht="28" spans="1:2">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -3993,7 +3998,7 @@
       </c>
     </row>
     <row r="108" ht="252" spans="1:4">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="8" t="s">
         <v>171</v>
       </c>
       <c r="B108" t="s">
@@ -4029,10 +4034,10 @@
       </c>
     </row>
     <row r="111" ht="168" spans="1:4">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="14" t="s">
         <v>182</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -4043,7 +4048,7 @@
       </c>
     </row>
     <row r="112" ht="182" spans="2:4">
-      <c r="B112" s="17"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="1" t="s">
         <v>185</v>
       </c>
@@ -4063,7 +4068,7 @@
       </c>
     </row>
     <row r="114" ht="210" spans="1:4">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B114" t="s">
@@ -4088,7 +4093,7 @@
       </c>
     </row>
     <row r="117" ht="409.5" spans="1:4">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="8" t="s">
         <v>197</v>
       </c>
       <c r="B117" t="s">
@@ -4124,14 +4129,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="23.5625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.5625" style="2" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" customWidth="1"/>
     <col min="4" max="4" width="82.03125" customWidth="1"/>
     <col min="5" max="5" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="140" spans="2:5">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C1" t="s">
@@ -4190,20 +4195,20 @@
       </c>
     </row>
     <row r="6" ht="168" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" ht="364" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="3"/>
+      <c r="C7" s="5" t="s">
         <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -4214,8 +4219,8 @@
       </c>
     </row>
     <row r="8" ht="210" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C8" t="s">
@@ -4226,8 +4231,7 @@
       </c>
     </row>
     <row r="9" ht="210" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="C9" t="s">
         <v>224</v>
       </c>
@@ -4239,7 +4243,7 @@
       </c>
     </row>
     <row r="10" ht="154" spans="1:5">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3"/>
       <c r="C10" t="s">
         <v>226</v>
       </c>
@@ -4251,7 +4255,7 @@
       </c>
     </row>
     <row r="11" ht="168" spans="1:5">
-      <c r="A11" s="5"/>
+      <c r="A11" s="3"/>
       <c r="C11" t="s">
         <v>229</v>
       </c>
@@ -4263,7 +4267,7 @@
       </c>
     </row>
     <row r="12" ht="224" spans="1:5">
-      <c r="A12" s="5"/>
+      <c r="A12" s="3"/>
       <c r="C12" t="s">
         <v>232</v>
       </c>
@@ -4275,7 +4279,7 @@
       </c>
     </row>
     <row r="13" ht="210" spans="1:5">
-      <c r="A13" s="5"/>
+      <c r="A13" s="3"/>
       <c r="C13" t="s">
         <v>235</v>
       </c>
@@ -4287,7 +4291,7 @@
       </c>
     </row>
     <row r="14" ht="126" spans="1:5">
-      <c r="A14" s="5"/>
+      <c r="A14" s="3"/>
       <c r="C14" t="s">
         <v>213</v>
       </c>
@@ -4299,7 +4303,7 @@
       </c>
     </row>
     <row r="15" ht="409.5" spans="1:5">
-      <c r="A15" s="5"/>
+      <c r="A15" s="3"/>
       <c r="C15" t="s">
         <v>239</v>
       </c>
@@ -4311,8 +4315,8 @@
       </c>
     </row>
     <row r="16" ht="266" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -4323,7 +4327,7 @@
       </c>
     </row>
     <row r="17" ht="409.5" spans="1:5">
-      <c r="A17" s="5"/>
+      <c r="A17" s="3"/>
       <c r="C17" t="s">
         <v>245</v>
       </c>
@@ -4335,37 +4339,37 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
+      <c r="A18" s="3"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
+      <c r="A19" s="3"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" ht="28" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
+    <row r="21" ht="28" spans="1:3">
+      <c r="A21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="3"/>
       <c r="C22" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" ht="210" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="3"/>
+      <c r="C23" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4376,8 +4380,8 @@
       </c>
     </row>
     <row r="24" ht="308" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="3"/>
+      <c r="C24" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4388,14 +4392,14 @@
       </c>
     </row>
     <row r="25" ht="238" spans="1:5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
         <v>258</v>
       </c>
       <c r="C25" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E25" t="s">
@@ -4403,8 +4407,8 @@
       </c>
     </row>
     <row r="26" ht="168" spans="1:5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
         <v>262</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4424,12 +4428,12 @@
       <c r="D27" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="30" ht="28" spans="2:3">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C30" t="s">
@@ -4442,68 +4446,60 @@
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="42" ht="182" spans="2:3">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="4"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="4"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="4"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="2"/>
+    <row r="43" spans="3:3">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1"/>
     </row>
     <row r="53" ht="154" spans="1:4">
       <c r="A53" t="s">
         <v>278</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4514,7 +4510,7 @@
       </c>
     </row>
     <row r="55" ht="378" spans="2:4">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4525,7 +4521,7 @@
       </c>
     </row>
     <row r="56" ht="28" spans="2:4">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4568,7 +4564,7 @@
       <c r="B2" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4576,7 +4572,7 @@
       <c r="B4" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4584,7 +4580,7 @@
       <c r="B6" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4592,7 +4588,7 @@
       <c r="B8" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4600,7 +4596,7 @@
       <c r="B10" t="s">
         <v>293</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4608,7 +4604,7 @@
       <c r="B12" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4616,10 +4612,10 @@
       <c r="B14" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4648,7 +4644,7 @@
       <c r="A5" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C5" t="s">
@@ -4689,12 +4685,12 @@
       <c r="A5" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="6" ht="56" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4735,7 +4731,7 @@
   </cols>
   <sheetData>
     <row r="2" ht="238" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>312</v>
       </c>
     </row>
